--- a/files/xl/conv-example.xlsx
+++ b/files/xl/conv-example.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\Google Drive\Docs\fastai\course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\git\course-v3\files\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AF2CA1-A2D8-446F-BEA8-CA9A3C2678E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="0" windowWidth="21420" windowHeight="12900"/>
+    <workbookView xWindow="857" yWindow="-103" windowWidth="27017" windowHeight="18720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conv-example" sheetId="1" r:id="rId1"/>
+    <sheet name="conv-example (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Input</t>
   </si>
@@ -56,11 +66,17 @@
   <si>
     <t>NB: MNIST would have 10 activations, and a softmax layer)</t>
   </si>
+  <si>
+    <t>filter 1</t>
+  </si>
+  <si>
+    <t>filter 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -909,30 +925,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EP57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CV1" workbookViewId="0">
-      <selection activeCell="EN6" sqref="EN6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="28" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="3.23046875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" customWidth="1"/>
-    <col min="30" max="33" width="4.33203125" customWidth="1"/>
-    <col min="34" max="59" width="2.59765625" customWidth="1"/>
-    <col min="60" max="60" width="3.6640625" customWidth="1"/>
-    <col min="61" max="64" width="4.33203125" customWidth="1"/>
-    <col min="65" max="89" width="3.19921875" customWidth="1"/>
-    <col min="91" max="115" width="2.86328125" customWidth="1"/>
-    <col min="116" max="118" width="4.1328125" customWidth="1"/>
-    <col min="119" max="141" width="3.59765625" customWidth="1"/>
-    <col min="142" max="142" width="4.1328125" customWidth="1"/>
+    <col min="30" max="33" width="4.3046875" customWidth="1"/>
+    <col min="34" max="59" width="2.61328125" customWidth="1"/>
+    <col min="60" max="60" width="3.69140625" customWidth="1"/>
+    <col min="61" max="64" width="4.3046875" customWidth="1"/>
+    <col min="65" max="89" width="3.23046875" customWidth="1"/>
+    <col min="91" max="115" width="2.84375" customWidth="1"/>
+    <col min="116" max="118" width="4.15234375" customWidth="1"/>
+    <col min="119" max="141" width="3.61328125" customWidth="1"/>
+    <col min="142" max="142" width="4.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -953,7 +967,7 @@
       </c>
       <c r="EP1" s="3"/>
     </row>
-    <row r="2" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1045,7 +1059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1235,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1620,7 +1634,7 @@
         <v>1814.9177220747999</v>
       </c>
     </row>
-    <row r="5" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1910,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -2291,7 +2305,7 @@
         <v>0.99788452624072421</v>
       </c>
     </row>
-    <row r="7" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -2581,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -2962,7 +2976,7 @@
         <v>0.12151386777108597</v>
       </c>
     </row>
-    <row r="9" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -3258,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -3639,7 +3653,7 @@
         <v>0.29766403805957964</v>
       </c>
     </row>
-    <row r="11" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -3947,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -4346,7 +4360,7 @@
         <v>0.11076347635583872</v>
       </c>
     </row>
-    <row r="13" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -4654,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -5035,7 +5049,7 @@
         <v>2.3605439822707686E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -5334,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -5724,7 +5738,7 @@
         <v>0.2545382137449389</v>
       </c>
     </row>
-    <row r="17" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:142" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -6023,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:142" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -6404,7 +6418,7 @@
         <v>0.7853924012925958</v>
       </c>
     </row>
-    <row r="19" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:142" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -6694,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:142" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -7075,7 +7089,7 @@
         <v>0.70137004323189511</v>
       </c>
     </row>
-    <row r="21" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:142" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -7365,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:142" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -7746,7 +7760,7 @@
         <v>0.14069301372140253</v>
       </c>
     </row>
-    <row r="23" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:142" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -8036,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:142" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -8417,7 +8431,7 @@
         <v>0.27364551997092634</v>
       </c>
     </row>
-    <row r="25" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:142" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -8707,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:142" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -9088,7 +9102,7 @@
         <v>0.41137274022015569</v>
       </c>
     </row>
-    <row r="27" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:142" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -9378,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:142" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -9568,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:142" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -9654,7 +9668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:142" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -9684,7 +9698,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="32" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:142" x14ac:dyDescent="0.4">
       <c r="AH32">
         <f t="array" ref="AH32">SUM(A2:C4*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -9790,7 +9804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="33" spans="30:142" x14ac:dyDescent="0.4">
       <c r="AH33">
         <f t="array" ref="AH33">SUM(A3:C5*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -10087,7 +10101,7 @@
         <v>0.12418678017957829</v>
       </c>
     </row>
-    <row r="34" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="34" spans="30:142" x14ac:dyDescent="0.4">
       <c r="AH34">
         <f t="array" ref="AH34">SUM(A4:C6*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -10293,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="35" spans="30:142" x14ac:dyDescent="0.4">
       <c r="AH35">
         <f t="array" ref="AH35">SUM(A5:C7*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -10499,55 +10513,55 @@
         <v>0</v>
       </c>
       <c r="CM35">
-        <f t="shared" ref="CM35:CM55" si="26">MAX(BM35:BN36)</f>
+        <f t="shared" ref="CM35" si="26">MAX(BM35:BN36)</f>
         <v>0</v>
       </c>
       <c r="CO35">
-        <f t="shared" ref="CO35:CO55" si="27">MAX(BO35:BP36)</f>
+        <f t="shared" ref="CO35" si="27">MAX(BO35:BP36)</f>
         <v>0</v>
       </c>
       <c r="CQ35">
-        <f t="shared" ref="CQ35:CQ55" si="28">MAX(BQ35:BR36)</f>
+        <f t="shared" ref="CQ35" si="28">MAX(BQ35:BR36)</f>
         <v>0</v>
       </c>
       <c r="CS35">
-        <f t="shared" ref="CS35:CS55" si="29">MAX(BS35:BT36)</f>
+        <f t="shared" ref="CS35" si="29">MAX(BS35:BT36)</f>
         <v>0.50831698437727213</v>
       </c>
       <c r="CU35">
-        <f t="shared" ref="CU35:CU55" si="30">MAX(BU35:BV36)</f>
+        <f t="shared" ref="CU35" si="30">MAX(BU35:BV36)</f>
         <v>1.4711792845188807</v>
       </c>
       <c r="CW35">
-        <f t="shared" ref="CW35:CW55" si="31">MAX(BW35:BX36)</f>
+        <f t="shared" ref="CW35" si="31">MAX(BW35:BX36)</f>
         <v>1.8652760026791628</v>
       </c>
       <c r="CY35">
-        <f t="shared" ref="CY35:CY55" si="32">MAX(BY35:BZ36)</f>
+        <f t="shared" ref="CY35" si="32">MAX(BY35:BZ36)</f>
         <v>1.5100033166476128</v>
       </c>
       <c r="DA35">
-        <f t="shared" ref="DA35:DA55" si="33">MAX(CA35:CB36)</f>
+        <f t="shared" ref="DA35" si="33">MAX(CA35:CB36)</f>
         <v>0.4517647135076619</v>
       </c>
       <c r="DC35">
-        <f t="shared" ref="DC35:DC55" si="34">MAX(CC35:CD36)</f>
+        <f t="shared" ref="DC35" si="34">MAX(CC35:CD36)</f>
         <v>0</v>
       </c>
       <c r="DE35">
-        <f t="shared" ref="DE35:DE55" si="35">MAX(CE35:CF36)</f>
+        <f t="shared" ref="DE35" si="35">MAX(CE35:CF36)</f>
         <v>0</v>
       </c>
       <c r="DG35">
-        <f t="shared" ref="DG35:DG55" si="36">MAX(CG35:CH36)</f>
+        <f t="shared" ref="DG35" si="36">MAX(CG35:CH36)</f>
         <v>0</v>
       </c>
       <c r="DI35">
-        <f t="shared" ref="DI35:DI55" si="37">MAX(CI35:CJ36)</f>
+        <f t="shared" ref="DI35" si="37">MAX(CI35:CJ36)</f>
         <v>0</v>
       </c>
       <c r="DK35">
-        <f t="shared" ref="DK35:DK55" si="38">MAX(CK35:CL36)</f>
+        <f t="shared" ref="DK35" si="38">MAX(CK35:CL36)</f>
         <v>0</v>
       </c>
       <c r="DN35">
@@ -10590,7 +10604,7 @@
         <v>6.4584170053752499E-2</v>
       </c>
     </row>
-    <row r="36" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="36" spans="30:142" x14ac:dyDescent="0.4">
       <c r="AD36" s="3" t="s">
         <v>3</v>
       </c>
@@ -10802,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="37" spans="30:142" x14ac:dyDescent="0.4">
       <c r="AH37">
         <f t="array" ref="AH37">SUM(A7:C9*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -11008,55 +11022,55 @@
         <v>0</v>
       </c>
       <c r="CM37">
-        <f t="shared" ref="CM37:CM55" si="39">MAX(BM37:BN38)</f>
+        <f t="shared" ref="CM37" si="39">MAX(BM37:BN38)</f>
         <v>8.5248041681862432</v>
       </c>
       <c r="CO37">
-        <f t="shared" ref="CO37:CO55" si="40">MAX(BO37:BP38)</f>
+        <f t="shared" ref="CO37" si="40">MAX(BO37:BP38)</f>
         <v>13.542165441633424</v>
       </c>
       <c r="CQ37">
-        <f t="shared" ref="CQ37:CQ55" si="41">MAX(BQ37:BR38)</f>
+        <f t="shared" ref="CQ37" si="41">MAX(BQ37:BR38)</f>
         <v>14.828259915776112</v>
       </c>
       <c r="CS37">
-        <f t="shared" ref="CS37:CS55" si="42">MAX(BS37:BT38)</f>
+        <f t="shared" ref="CS37" si="42">MAX(BS37:BT38)</f>
         <v>16.020988019725664</v>
       </c>
       <c r="CU37">
-        <f t="shared" ref="CU37:CU55" si="43">MAX(BU37:BV38)</f>
+        <f t="shared" ref="CU37" si="43">MAX(BU37:BV38)</f>
         <v>19.317480242393167</v>
       </c>
       <c r="CW37">
-        <f t="shared" ref="CW37:CW55" si="44">MAX(BW37:BX38)</f>
+        <f t="shared" ref="CW37" si="44">MAX(BW37:BX38)</f>
         <v>20.901067441758361</v>
       </c>
       <c r="CY37">
-        <f t="shared" ref="CY37:CY55" si="45">MAX(BY37:BZ38)</f>
+        <f t="shared" ref="CY37" si="45">MAX(BY37:BZ38)</f>
         <v>20.217416045079101</v>
       </c>
       <c r="DA37">
-        <f t="shared" ref="DA37:DA55" si="46">MAX(CA37:CB38)</f>
+        <f t="shared" ref="DA37" si="46">MAX(CA37:CB38)</f>
         <v>14.44412132388663</v>
       </c>
       <c r="DC37">
-        <f t="shared" ref="DC37:DC55" si="47">MAX(CC37:CD38)</f>
+        <f t="shared" ref="DC37" si="47">MAX(CC37:CD38)</f>
         <v>5.2613872505944599</v>
       </c>
       <c r="DE37">
-        <f t="shared" ref="DE37:DE55" si="48">MAX(CE37:CF38)</f>
+        <f t="shared" ref="DE37" si="48">MAX(CE37:CF38)</f>
         <v>0.62794633804413991</v>
       </c>
       <c r="DG37">
-        <f t="shared" ref="DG37:DG55" si="49">MAX(CG37:CH38)</f>
+        <f t="shared" ref="DG37" si="49">MAX(CG37:CH38)</f>
         <v>0</v>
       </c>
       <c r="DI37">
-        <f t="shared" ref="DI37:DI55" si="50">MAX(CI37:CJ38)</f>
+        <f t="shared" ref="DI37" si="50">MAX(CI37:CJ38)</f>
         <v>0</v>
       </c>
       <c r="DK37">
-        <f t="shared" ref="DK37:DK55" si="51">MAX(CK37:CL38)</f>
+        <f t="shared" ref="DK37" si="51">MAX(CK37:CL38)</f>
         <v>0</v>
       </c>
       <c r="DN37">
@@ -11099,7 +11113,7 @@
         <v>0.9257179186330543</v>
       </c>
     </row>
-    <row r="38" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="38" spans="30:142" x14ac:dyDescent="0.4">
       <c r="AD38">
         <v>0.52650277421093949</v>
       </c>
@@ -11323,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="39" spans="30:142" x14ac:dyDescent="0.4">
       <c r="AD39">
         <v>0.67879194550467037</v>
       </c>
@@ -11547,55 +11561,55 @@
         <v>0</v>
       </c>
       <c r="CM39">
-        <f t="shared" ref="CM39:CM55" si="52">MAX(BM39:BN40)</f>
+        <f t="shared" ref="CM39" si="52">MAX(BM39:BN40)</f>
         <v>24.737202228639759</v>
       </c>
       <c r="CO39">
-        <f t="shared" ref="CO39:CO55" si="53">MAX(BO39:BP40)</f>
+        <f t="shared" ref="CO39" si="53">MAX(BO39:BP40)</f>
         <v>32.256323265313142</v>
       </c>
       <c r="CQ39">
-        <f t="shared" ref="CQ39:CQ55" si="54">MAX(BQ39:BR40)</f>
+        <f t="shared" ref="CQ39" si="54">MAX(BQ39:BR40)</f>
         <v>32.92067947286926</v>
       </c>
       <c r="CS39">
-        <f t="shared" ref="CS39:CS55" si="55">MAX(BS39:BT40)</f>
+        <f t="shared" ref="CS39" si="55">MAX(BS39:BT40)</f>
         <v>31.898807344728542</v>
       </c>
       <c r="CU39">
-        <f t="shared" ref="CU39:CU55" si="56">MAX(BU39:BV40)</f>
+        <f t="shared" ref="CU39" si="56">MAX(BU39:BV40)</f>
         <v>29.796393812044766</v>
       </c>
       <c r="CW39">
-        <f t="shared" ref="CW39:CW55" si="57">MAX(BW39:BX40)</f>
+        <f t="shared" ref="CW39" si="57">MAX(BW39:BX40)</f>
         <v>31.049747018120982</v>
       </c>
       <c r="CY39">
-        <f t="shared" ref="CY39:CY55" si="58">MAX(BY39:BZ40)</f>
+        <f t="shared" ref="CY39" si="58">MAX(BY39:BZ40)</f>
         <v>33.569751681031505</v>
       </c>
       <c r="DA39">
-        <f t="shared" ref="DA39:DA55" si="59">MAX(CA39:CB40)</f>
+        <f t="shared" ref="DA39" si="59">MAX(CA39:CB40)</f>
         <v>34.141589310174325</v>
       </c>
       <c r="DC39">
-        <f t="shared" ref="DC39:DC55" si="60">MAX(CC39:CD40)</f>
+        <f t="shared" ref="DC39" si="60">MAX(CC39:CD40)</f>
         <v>24.298892572495994</v>
       </c>
       <c r="DE39">
-        <f t="shared" ref="DE39:DE55" si="61">MAX(CE39:CF40)</f>
+        <f t="shared" ref="DE39" si="61">MAX(CE39:CF40)</f>
         <v>6.7354735415357396</v>
       </c>
       <c r="DG39">
-        <f t="shared" ref="DG39:DG55" si="62">MAX(CG39:CH40)</f>
+        <f t="shared" ref="DG39" si="62">MAX(CG39:CH40)</f>
         <v>0.38628791996680112</v>
       </c>
       <c r="DI39">
-        <f t="shared" ref="DI39:DI55" si="63">MAX(CI39:CJ40)</f>
+        <f t="shared" ref="DI39" si="63">MAX(CI39:CJ40)</f>
         <v>0</v>
       </c>
       <c r="DK39">
-        <f t="shared" ref="DK39:DK55" si="64">MAX(CK39:CL40)</f>
+        <f t="shared" ref="DK39" si="64">MAX(CK39:CL40)</f>
         <v>0</v>
       </c>
       <c r="DN39">
@@ -11638,7 +11652,7 @@
         <v>0.39343496649046428</v>
       </c>
     </row>
-    <row r="40" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="40" spans="30:142" x14ac:dyDescent="0.4">
       <c r="AD40">
         <v>0.15683313231014728</v>
       </c>
@@ -11862,7 +11876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="41" spans="30:142" x14ac:dyDescent="0.4">
       <c r="AH41">
         <f t="array" ref="AH41">SUM(A11:C13*$AD$38:$AF$40)</f>
         <v>1.3541230284115331</v>
@@ -12068,55 +12082,55 @@
         <v>0</v>
       </c>
       <c r="CM41">
-        <f t="shared" ref="CM41:CM55" si="65">MAX(BM41:BN42)</f>
+        <f t="shared" ref="CM41" si="65">MAX(BM41:BN42)</f>
         <v>23.404997353542512</v>
       </c>
       <c r="CO41">
-        <f t="shared" ref="CO41:CO55" si="66">MAX(BO41:BP42)</f>
+        <f t="shared" ref="CO41" si="66">MAX(BO41:BP42)</f>
         <v>27.183423252520331</v>
       </c>
       <c r="CQ41">
-        <f t="shared" ref="CQ41:CQ55" si="67">MAX(BQ41:BR42)</f>
+        <f t="shared" ref="CQ41" si="67">MAX(BQ41:BR42)</f>
         <v>26.604307701710106</v>
       </c>
       <c r="CS41">
-        <f t="shared" ref="CS41:CS55" si="68">MAX(BS41:BT42)</f>
+        <f t="shared" ref="CS41" si="68">MAX(BS41:BT42)</f>
         <v>24.427916988743082</v>
       </c>
       <c r="CU41">
-        <f t="shared" ref="CU41:CU55" si="69">MAX(BU41:BV42)</f>
+        <f t="shared" ref="CU41" si="69">MAX(BU41:BV42)</f>
         <v>20.024906794823913</v>
       </c>
       <c r="CW41">
-        <f t="shared" ref="CW41:CW55" si="70">MAX(BW41:BX42)</f>
+        <f t="shared" ref="CW41" si="70">MAX(BW41:BX42)</f>
         <v>18.910126588015519</v>
       </c>
       <c r="CY41">
-        <f t="shared" ref="CY41:CY55" si="71">MAX(BY41:BZ42)</f>
+        <f t="shared" ref="CY41" si="71">MAX(BY41:BZ42)</f>
         <v>25.465764063883974</v>
       </c>
       <c r="DA41">
-        <f t="shared" ref="DA41:DA55" si="72">MAX(CA41:CB42)</f>
+        <f t="shared" ref="DA41" si="72">MAX(CA41:CB42)</f>
         <v>34.475986631095651</v>
       </c>
       <c r="DC41">
-        <f t="shared" ref="DC41:DC55" si="73">MAX(CC41:CD42)</f>
+        <f t="shared" ref="DC41" si="73">MAX(CC41:CD42)</f>
         <v>34.627667864916745</v>
       </c>
       <c r="DE41">
-        <f t="shared" ref="DE41:DE55" si="74">MAX(CE41:CF42)</f>
+        <f t="shared" ref="DE41" si="74">MAX(CE41:CF42)</f>
         <v>19.973172801015078</v>
       </c>
       <c r="DG41">
-        <f t="shared" ref="DG41:DG55" si="75">MAX(CG41:CH42)</f>
+        <f t="shared" ref="DG41" si="75">MAX(CG41:CH42)</f>
         <v>2.8870572057944424</v>
       </c>
       <c r="DI41">
-        <f t="shared" ref="DI41:DI55" si="76">MAX(CI41:CJ42)</f>
+        <f t="shared" ref="DI41" si="76">MAX(CI41:CJ42)</f>
         <v>0</v>
       </c>
       <c r="DK41">
-        <f t="shared" ref="DK41:DK55" si="77">MAX(CK41:CL42)</f>
+        <f t="shared" ref="DK41" si="77">MAX(CK41:CL42)</f>
         <v>0</v>
       </c>
       <c r="DN41">
@@ -12159,7 +12173,7 @@
         <v>2.7567833346226478E-2</v>
       </c>
     </row>
-    <row r="42" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="42" spans="30:142" x14ac:dyDescent="0.4">
       <c r="AH42">
         <f t="array" ref="AH42">SUM(A12:C14*$AD$38:$AF$40)</f>
         <v>0.81492150426237664</v>
@@ -12374,7 +12388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="43" spans="30:142" x14ac:dyDescent="0.4">
       <c r="AH43">
         <f t="array" ref="AH43">SUM(A13:C15*$AD$38:$AF$40)</f>
         <v>0.11468953936637652</v>
@@ -12589,55 +12603,55 @@
         <v>0</v>
       </c>
       <c r="CM43">
-        <f t="shared" ref="CM43:CM55" si="78">MAX(BM43:BN44)</f>
+        <f t="shared" ref="CM43" si="78">MAX(BM43:BN44)</f>
         <v>4.9362975372505007</v>
       </c>
       <c r="CO43">
-        <f t="shared" ref="CO43:CO55" si="79">MAX(BO43:BP44)</f>
+        <f t="shared" ref="CO43" si="79">MAX(BO43:BP44)</f>
         <v>4.6085400578132933</v>
       </c>
       <c r="CQ43">
-        <f t="shared" ref="CQ43:CQ55" si="80">MAX(BQ43:BR44)</f>
+        <f t="shared" ref="CQ43" si="80">MAX(BQ43:BR44)</f>
         <v>3.4349377363893501</v>
       </c>
       <c r="CS43">
-        <f t="shared" ref="CS43:CS55" si="81">MAX(BS43:BT44)</f>
+        <f t="shared" ref="CS43" si="81">MAX(BS43:BT44)</f>
         <v>2.658593324704281</v>
       </c>
       <c r="CU43">
-        <f t="shared" ref="CU43:CU55" si="82">MAX(BU43:BV44)</f>
+        <f t="shared" ref="CU43" si="82">MAX(BU43:BV44)</f>
         <v>1.8521694580981223</v>
       </c>
       <c r="CW43">
-        <f t="shared" ref="CW43:CW55" si="83">MAX(BW43:BX44)</f>
+        <f t="shared" ref="CW43" si="83">MAX(BW43:BX44)</f>
         <v>4.0940115795742997</v>
       </c>
       <c r="CY43">
-        <f t="shared" ref="CY43:CY55" si="84">MAX(BY43:BZ44)</f>
+        <f t="shared" ref="CY43" si="84">MAX(BY43:BZ44)</f>
         <v>9.3594206285015158</v>
       </c>
       <c r="DA43">
-        <f t="shared" ref="DA43:DA55" si="85">MAX(CA43:CB44)</f>
+        <f t="shared" ref="DA43" si="85">MAX(CA43:CB44)</f>
         <v>26.829517795776592</v>
       </c>
       <c r="DC43">
-        <f t="shared" ref="DC43:DC55" si="86">MAX(CC43:CD44)</f>
+        <f t="shared" ref="DC43" si="86">MAX(CC43:CD44)</f>
         <v>36.519021978647707</v>
       </c>
       <c r="DE43">
-        <f t="shared" ref="DE43:DE55" si="87">MAX(CE43:CF44)</f>
+        <f t="shared" ref="DE43" si="87">MAX(CE43:CF44)</f>
         <v>29.0651365031813</v>
       </c>
       <c r="DG43">
-        <f t="shared" ref="DG43:DG55" si="88">MAX(CG43:CH44)</f>
+        <f t="shared" ref="DG43" si="88">MAX(CG43:CH44)</f>
         <v>6.4316939772986963</v>
       </c>
       <c r="DI43">
-        <f t="shared" ref="DI43:DI55" si="89">MAX(CI43:CJ44)</f>
+        <f t="shared" ref="DI43" si="89">MAX(CI43:CJ44)</f>
         <v>0</v>
       </c>
       <c r="DK43">
-        <f t="shared" ref="DK43:DK55" si="90">MAX(CK43:CL44)</f>
+        <f t="shared" ref="DK43" si="90">MAX(CK43:CL44)</f>
         <v>0</v>
       </c>
       <c r="DN43">
@@ -12680,7 +12694,7 @@
         <v>0.60881116157338266</v>
       </c>
     </row>
-    <row r="44" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="44" spans="30:142" x14ac:dyDescent="0.4">
       <c r="AH44">
         <f t="array" ref="AH44">SUM(A14:C16*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -12895,7 +12909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="45" spans="30:142" x14ac:dyDescent="0.4">
       <c r="AH45">
         <f t="array" ref="AH45">SUM(A15:C17*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -13101,55 +13115,55 @@
         <v>0</v>
       </c>
       <c r="CM45">
-        <f t="shared" ref="CM45:CM55" si="91">MAX(BM45:BN46)</f>
+        <f t="shared" ref="CM45" si="91">MAX(BM45:BN46)</f>
         <v>0</v>
       </c>
       <c r="CO45">
-        <f t="shared" ref="CO45:CO55" si="92">MAX(BO45:BP46)</f>
+        <f t="shared" ref="CO45" si="92">MAX(BO45:BP46)</f>
         <v>0.19389409697348189</v>
       </c>
       <c r="CQ45">
-        <f t="shared" ref="CQ45:CQ55" si="93">MAX(BQ45:BR46)</f>
+        <f t="shared" ref="CQ45" si="93">MAX(BQ45:BR46)</f>
         <v>2.826416050278115</v>
       </c>
       <c r="CS45">
-        <f t="shared" ref="CS45:CS55" si="94">MAX(BS45:BT46)</f>
+        <f t="shared" ref="CS45" si="94">MAX(BS45:BT46)</f>
         <v>8.4632602782974224</v>
       </c>
       <c r="CU45">
-        <f t="shared" ref="CU45:CU55" si="95">MAX(BU45:BV46)</f>
+        <f t="shared" ref="CU45" si="95">MAX(BU45:BV46)</f>
         <v>17.611727712850708</v>
       </c>
       <c r="CW45">
-        <f t="shared" ref="CW45:CW55" si="96">MAX(BW45:BX46)</f>
+        <f t="shared" ref="CW45" si="96">MAX(BW45:BX46)</f>
         <v>26.226114185533813</v>
       </c>
       <c r="CY45">
-        <f t="shared" ref="CY45:CY55" si="97">MAX(BY45:BZ46)</f>
+        <f t="shared" ref="CY45" si="97">MAX(BY45:BZ46)</f>
         <v>30.181989266854224</v>
       </c>
       <c r="DA45">
-        <f t="shared" ref="DA45:DA55" si="98">MAX(CA45:CB46)</f>
+        <f t="shared" ref="DA45" si="98">MAX(CA45:CB46)</f>
         <v>37.617586070917149</v>
       </c>
       <c r="DC45">
-        <f t="shared" ref="DC45:DC55" si="99">MAX(CC45:CD46)</f>
+        <f t="shared" ref="DC45" si="99">MAX(CC45:CD46)</f>
         <v>42.15919905255852</v>
       </c>
       <c r="DE45">
-        <f t="shared" ref="DE45:DE55" si="100">MAX(CE45:CF46)</f>
+        <f t="shared" ref="DE45" si="100">MAX(CE45:CF46)</f>
         <v>33.614745233718978</v>
       </c>
       <c r="DG45">
-        <f t="shared" ref="DG45:DG55" si="101">MAX(CG45:CH46)</f>
+        <f t="shared" ref="DG45" si="101">MAX(CG45:CH46)</f>
         <v>9.9605354993172632</v>
       </c>
       <c r="DI45">
-        <f t="shared" ref="DI45:DI55" si="102">MAX(CI45:CJ46)</f>
+        <f t="shared" ref="DI45" si="102">MAX(CI45:CJ46)</f>
         <v>0</v>
       </c>
       <c r="DK45">
-        <f t="shared" ref="DK45:DK55" si="103">MAX(CK45:CL46)</f>
+        <f t="shared" ref="DK45" si="103">MAX(CK45:CL46)</f>
         <v>0</v>
       </c>
       <c r="DN45">
@@ -13192,7 +13206,7 @@
         <v>0.86678537201906625</v>
       </c>
     </row>
-    <row r="46" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="46" spans="30:142" x14ac:dyDescent="0.4">
       <c r="AH46">
         <f t="array" ref="AH46">SUM(A16:C18*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -13398,7 +13412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="47" spans="30:142" x14ac:dyDescent="0.4">
       <c r="AH47">
         <f t="array" ref="AH47">SUM(A17:C19*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -13604,55 +13618,55 @@
         <v>0</v>
       </c>
       <c r="CM47">
-        <f t="shared" ref="CM47:CM55" si="104">MAX(BM47:BN48)</f>
+        <f t="shared" ref="CM47" si="104">MAX(BM47:BN48)</f>
         <v>0</v>
       </c>
       <c r="CO47">
-        <f t="shared" ref="CO47:CO55" si="105">MAX(BO47:BP48)</f>
+        <f t="shared" ref="CO47" si="105">MAX(BO47:BP48)</f>
         <v>4.8671588876067222</v>
       </c>
       <c r="CQ47">
-        <f t="shared" ref="CQ47:CQ55" si="106">MAX(BQ47:BR48)</f>
+        <f t="shared" ref="CQ47" si="106">MAX(BQ47:BR48)</f>
         <v>16.813851842840705</v>
       </c>
       <c r="CS47">
-        <f t="shared" ref="CS47:CS55" si="107">MAX(BS47:BT48)</f>
+        <f t="shared" ref="CS47" si="107">MAX(BS47:BT48)</f>
         <v>26.643171277741608</v>
       </c>
       <c r="CU47">
-        <f t="shared" ref="CU47:CU55" si="108">MAX(BU47:BV48)</f>
+        <f t="shared" ref="CU47" si="108">MAX(BU47:BV48)</f>
         <v>29.714617157701849</v>
       </c>
       <c r="CW47">
-        <f t="shared" ref="CW47:CW55" si="109">MAX(BW47:BX48)</f>
+        <f t="shared" ref="CW47" si="109">MAX(BW47:BX48)</f>
         <v>32.45322656806632</v>
       </c>
       <c r="CY47">
-        <f t="shared" ref="CY47:CY55" si="110">MAX(BY47:BZ48)</f>
+        <f t="shared" ref="CY47" si="110">MAX(BY47:BZ48)</f>
         <v>32.924975088986976</v>
       </c>
       <c r="DA47">
-        <f t="shared" ref="DA47:DA55" si="111">MAX(CA47:CB48)</f>
+        <f t="shared" ref="DA47" si="111">MAX(CA47:CB48)</f>
         <v>36.956170686321471</v>
       </c>
       <c r="DC47">
-        <f t="shared" ref="DC47:DC55" si="112">MAX(CC47:CD48)</f>
+        <f t="shared" ref="DC47" si="112">MAX(CC47:CD48)</f>
         <v>41.214520599794071</v>
       </c>
       <c r="DE47">
-        <f t="shared" ref="DE47:DE55" si="113">MAX(CE47:CF48)</f>
+        <f t="shared" ref="DE47" si="113">MAX(CE47:CF48)</f>
         <v>33.328086379058739</v>
       </c>
       <c r="DG47">
-        <f t="shared" ref="DG47:DG55" si="114">MAX(CG47:CH48)</f>
+        <f t="shared" ref="DG47" si="114">MAX(CG47:CH48)</f>
         <v>10.207566360137617</v>
       </c>
       <c r="DI47">
-        <f t="shared" ref="DI47:DI55" si="115">MAX(CI47:CJ48)</f>
+        <f t="shared" ref="DI47" si="115">MAX(CI47:CJ48)</f>
         <v>0</v>
       </c>
       <c r="DK47">
-        <f t="shared" ref="DK47:DK55" si="116">MAX(CK47:CL48)</f>
+        <f t="shared" ref="DK47" si="116">MAX(CK47:CL48)</f>
         <v>0</v>
       </c>
       <c r="DN47">
@@ -13695,7 +13709,7 @@
         <v>0.4757472817415962</v>
       </c>
     </row>
-    <row r="48" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="48" spans="30:142" x14ac:dyDescent="0.4">
       <c r="AH48">
         <f t="array" ref="AH48">SUM(A18:C20*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -13901,7 +13915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="49" spans="34:142" x14ac:dyDescent="0.4">
       <c r="AH49">
         <f t="array" ref="AH49">SUM(A19:C21*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -14107,55 +14121,55 @@
         <v>0</v>
       </c>
       <c r="CM49">
-        <f t="shared" ref="CM49:CM55" si="117">MAX(BM49:BN50)</f>
+        <f t="shared" ref="CM49" si="117">MAX(BM49:BN50)</f>
         <v>0</v>
       </c>
       <c r="CO49">
-        <f t="shared" ref="CO49:CO55" si="118">MAX(BO49:BP50)</f>
+        <f t="shared" ref="CO49" si="118">MAX(BO49:BP50)</f>
         <v>7.8245768225024701</v>
       </c>
       <c r="CQ49">
-        <f t="shared" ref="CQ49:CQ55" si="119">MAX(BQ49:BR50)</f>
+        <f t="shared" ref="CQ49" si="119">MAX(BQ49:BR50)</f>
         <v>22.236091546208517</v>
       </c>
       <c r="CS49">
-        <f t="shared" ref="CS49:CS55" si="120">MAX(BS49:BT50)</f>
+        <f t="shared" ref="CS49" si="120">MAX(BS49:BT50)</f>
         <v>26.922179193579876</v>
       </c>
       <c r="CU49">
-        <f t="shared" ref="CU49:CU55" si="121">MAX(BU49:BV50)</f>
+        <f t="shared" ref="CU49" si="121">MAX(BU49:BV50)</f>
         <v>25.356023183665279</v>
       </c>
       <c r="CW49">
-        <f t="shared" ref="CW49:CW55" si="122">MAX(BW49:BX50)</f>
+        <f t="shared" ref="CW49" si="122">MAX(BW49:BX50)</f>
         <v>19.041443662765541</v>
       </c>
       <c r="CY49">
-        <f t="shared" ref="CY49:CY55" si="123">MAX(BY49:BZ50)</f>
+        <f t="shared" ref="CY49" si="123">MAX(BY49:BZ50)</f>
         <v>13.252407379358676</v>
       </c>
       <c r="DA49">
-        <f t="shared" ref="DA49:DA55" si="124">MAX(CA49:CB50)</f>
+        <f t="shared" ref="DA49" si="124">MAX(CA49:CB50)</f>
         <v>22.206984344444777</v>
       </c>
       <c r="DC49">
-        <f t="shared" ref="DC49:DC55" si="125">MAX(CC49:CD50)</f>
+        <f t="shared" ref="DC49" si="125">MAX(CC49:CD50)</f>
         <v>32.91244410250745</v>
       </c>
       <c r="DE49">
-        <f t="shared" ref="DE49:DE55" si="126">MAX(CE49:CF50)</f>
+        <f t="shared" ref="DE49" si="126">MAX(CE49:CF50)</f>
         <v>29.029639414720894</v>
       </c>
       <c r="DG49">
-        <f t="shared" ref="DG49:DG55" si="127">MAX(CG49:CH50)</f>
+        <f t="shared" ref="DG49" si="127">MAX(CG49:CH50)</f>
         <v>7.3164929273548642</v>
       </c>
       <c r="DI49">
-        <f t="shared" ref="DI49:DI55" si="128">MAX(CI49:CJ50)</f>
+        <f t="shared" ref="DI49" si="128">MAX(CI49:CJ50)</f>
         <v>0</v>
       </c>
       <c r="DK49">
-        <f t="shared" ref="DK49:DK55" si="129">MAX(CK49:CL50)</f>
+        <f t="shared" ref="DK49" si="129">MAX(CK49:CL50)</f>
         <v>0</v>
       </c>
       <c r="DN49">
@@ -14198,7 +14212,7 @@
         <v>0.57301548705157823</v>
       </c>
     </row>
-    <row r="50" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="50" spans="34:142" x14ac:dyDescent="0.4">
       <c r="AH50">
         <f t="array" ref="AH50">SUM(A20:C22*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -14404,7 +14418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="51" spans="34:142" x14ac:dyDescent="0.4">
       <c r="AH51">
         <f t="array" ref="AH51">SUM(A21:C23*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -14610,55 +14624,55 @@
         <v>0</v>
       </c>
       <c r="CM51">
-        <f t="shared" ref="CM51:CM55" si="130">MAX(BM51:BN52)</f>
+        <f t="shared" ref="CM51" si="130">MAX(BM51:BN52)</f>
         <v>0</v>
       </c>
       <c r="CO51">
-        <f t="shared" ref="CO51:CO55" si="131">MAX(BO51:BP52)</f>
+        <f t="shared" ref="CO51" si="131">MAX(BO51:BP52)</f>
         <v>5.2881971419328879</v>
       </c>
       <c r="CQ51">
-        <f t="shared" ref="CQ51:CQ55" si="132">MAX(BQ51:BR52)</f>
+        <f t="shared" ref="CQ51" si="132">MAX(BQ51:BR52)</f>
         <v>12.471574881998556</v>
       </c>
       <c r="CS51">
-        <f t="shared" ref="CS51:CS55" si="133">MAX(BS51:BT52)</f>
+        <f t="shared" ref="CS51" si="133">MAX(BS51:BT52)</f>
         <v>11.056183188117641</v>
       </c>
       <c r="CU51">
-        <f t="shared" ref="CU51:CU55" si="134">MAX(BU51:BV52)</f>
+        <f t="shared" ref="CU51" si="134">MAX(BU51:BV52)</f>
         <v>4.604787805602685</v>
       </c>
       <c r="CW51">
-        <f t="shared" ref="CW51:CW55" si="135">MAX(BW51:BX52)</f>
+        <f t="shared" ref="CW51" si="135">MAX(BW51:BX52)</f>
         <v>1.2971676092255335</v>
       </c>
       <c r="CY51">
-        <f t="shared" ref="CY51:CY55" si="136">MAX(BY51:BZ52)</f>
+        <f t="shared" ref="CY51" si="136">MAX(BY51:BZ52)</f>
         <v>7.9520727832933957</v>
       </c>
       <c r="DA51">
-        <f t="shared" ref="DA51:DA55" si="137">MAX(CA51:CB52)</f>
+        <f t="shared" ref="DA51" si="137">MAX(CA51:CB52)</f>
         <v>26.33880598381101</v>
       </c>
       <c r="DC51">
-        <f t="shared" ref="DC51:DC55" si="138">MAX(CC51:CD52)</f>
+        <f t="shared" ref="DC51" si="138">MAX(CC51:CD52)</f>
         <v>30.86698513518493</v>
       </c>
       <c r="DE51">
-        <f t="shared" ref="DE51:DE55" si="139">MAX(CE51:CF52)</f>
+        <f t="shared" ref="DE51" si="139">MAX(CE51:CF52)</f>
         <v>22.075855235142271</v>
       </c>
       <c r="DG51">
-        <f t="shared" ref="DG51:DG55" si="140">MAX(CG51:CH52)</f>
+        <f t="shared" ref="DG51" si="140">MAX(CG51:CH52)</f>
         <v>3.6552517133085738</v>
       </c>
       <c r="DI51">
-        <f t="shared" ref="DI51:DI55" si="141">MAX(CI51:CJ52)</f>
+        <f t="shared" ref="DI51" si="141">MAX(CI51:CJ52)</f>
         <v>0</v>
       </c>
       <c r="DK51">
-        <f t="shared" ref="DK51:DK55" si="142">MAX(CK51:CL52)</f>
+        <f t="shared" ref="DK51" si="142">MAX(CK51:CL52)</f>
         <v>0</v>
       </c>
       <c r="DN51">
@@ -14701,7 +14715,7 @@
         <v>0.47084842990016917</v>
       </c>
     </row>
-    <row r="52" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="52" spans="34:142" x14ac:dyDescent="0.4">
       <c r="AH52">
         <f t="array" ref="AH52">SUM(A22:C24*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -14907,7 +14921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="53" spans="34:142" x14ac:dyDescent="0.4">
       <c r="AH53">
         <f t="array" ref="AH53">SUM(A23:C25*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -15113,55 +15127,55 @@
         <v>0</v>
       </c>
       <c r="CM53">
-        <f t="shared" ref="CM53:CM55" si="143">MAX(BM53:BN54)</f>
+        <f t="shared" ref="CM53" si="143">MAX(BM53:BN54)</f>
         <v>0</v>
       </c>
       <c r="CO53">
-        <f t="shared" ref="CO53:CO55" si="144">MAX(BO53:BP54)</f>
+        <f t="shared" ref="CO53" si="144">MAX(BO53:BP54)</f>
         <v>0.50896123341568766</v>
       </c>
       <c r="CQ53">
-        <f t="shared" ref="CQ53:CQ55" si="145">MAX(BQ53:BR54)</f>
+        <f t="shared" ref="CQ53" si="145">MAX(BQ53:BR54)</f>
         <v>0.79741152585673492</v>
       </c>
       <c r="CS53">
-        <f t="shared" ref="CS53:CS55" si="146">MAX(BS53:BT54)</f>
+        <f t="shared" ref="CS53" si="146">MAX(BS53:BT54)</f>
         <v>0.33217932523177468</v>
       </c>
       <c r="CU53">
-        <f t="shared" ref="CU53:CU55" si="147">MAX(BU53:BV54)</f>
+        <f t="shared" ref="CU53" si="147">MAX(BU53:BV54)</f>
         <v>0</v>
       </c>
       <c r="CW53">
-        <f t="shared" ref="CW53:CW55" si="148">MAX(BW53:BX54)</f>
+        <f t="shared" ref="CW53" si="148">MAX(BW53:BX54)</f>
         <v>1.7158617863318357</v>
       </c>
       <c r="CY53">
-        <f t="shared" ref="CY53:CY55" si="149">MAX(BY53:BZ54)</f>
+        <f t="shared" ref="CY53" si="149">MAX(BY53:BZ54)</f>
         <v>17.068802058176665</v>
       </c>
       <c r="DA53">
-        <f t="shared" ref="DA53:DA55" si="150">MAX(CA53:CB54)</f>
+        <f t="shared" ref="DA53" si="150">MAX(CA53:CB54)</f>
         <v>29.749243450439501</v>
       </c>
       <c r="DC53">
-        <f t="shared" ref="DC53:DC55" si="151">MAX(CC53:CD54)</f>
+        <f t="shared" ref="DC53" si="151">MAX(CC53:CD54)</f>
         <v>29.787581996182315</v>
       </c>
       <c r="DE53">
-        <f t="shared" ref="DE53:DE55" si="152">MAX(CE53:CF54)</f>
+        <f t="shared" ref="DE53" si="152">MAX(CE53:CF54)</f>
         <v>11.879170115474352</v>
       </c>
       <c r="DG53">
-        <f t="shared" ref="DG53:DG55" si="153">MAX(CG53:CH54)</f>
+        <f t="shared" ref="DG53" si="153">MAX(CG53:CH54)</f>
         <v>0.63070121055169737</v>
       </c>
       <c r="DI53">
-        <f t="shared" ref="DI53:DI55" si="154">MAX(CI53:CJ54)</f>
+        <f t="shared" ref="DI53" si="154">MAX(CI53:CJ54)</f>
         <v>0</v>
       </c>
       <c r="DK53">
-        <f t="shared" ref="DK53:DK55" si="155">MAX(CK53:CL54)</f>
+        <f t="shared" ref="DK53" si="155">MAX(CK53:CL54)</f>
         <v>0</v>
       </c>
       <c r="DN53">
@@ -15204,7 +15218,7 @@
         <v>0.33449439821404614</v>
       </c>
     </row>
-    <row r="54" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="54" spans="34:142" x14ac:dyDescent="0.4">
       <c r="AH54">
         <f t="array" ref="AH54">SUM(A24:C26*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -15410,7 +15424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="55" spans="34:142" x14ac:dyDescent="0.4">
       <c r="AH55">
         <f t="array" ref="AH55">SUM(A25:C27*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -15707,7 +15721,7 @@
         <v>0.86842391434777921</v>
       </c>
     </row>
-    <row r="56" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="56" spans="34:142" x14ac:dyDescent="0.4">
       <c r="AH56">
         <f t="array" ref="AH56">SUM(A26:C28*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -15913,7 +15927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="57" spans="34:142" x14ac:dyDescent="0.4">
       <c r="AH57">
         <f t="array" ref="AH57">SUM(A27:C29*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -16083,4 +16097,7213 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40CAA12-CC1C-4983-8A00-643B2873D527}">
+  <dimension ref="A1:CJ30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="BT13" sqref="BT13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="28" width="3.23046875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5" customWidth="1"/>
+    <col min="30" max="33" width="4.3046875" customWidth="1"/>
+    <col min="34" max="59" width="2.61328125" customWidth="1"/>
+    <col min="60" max="60" width="3.69140625" customWidth="1"/>
+    <col min="61" max="63" width="5" customWidth="1"/>
+    <col min="64" max="64" width="5.3828125" customWidth="1"/>
+    <col min="66" max="66" width="6.4609375" customWidth="1"/>
+    <col min="67" max="88" width="3.23046875" customWidth="1"/>
+    <col min="89" max="89" width="11.3828125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f t="array" ref="AH3">SUM(A2:C4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f t="array" ref="AI3">SUM(B2:D4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <f t="array" ref="AJ3">SUM(C2:E4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <f t="array" ref="AK3">SUM(D2:F4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <f t="array" ref="AL3">SUM(E2:G4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <f t="array" ref="AM3">SUM(F2:H4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <f t="array" ref="AN3">SUM(G2:I4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <f t="array" ref="AO3">SUM(H2:J4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <f t="array" ref="AP3">SUM(I2:K4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <f t="array" ref="AQ3">SUM(J2:L4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <f t="array" ref="AR3">SUM(K2:M4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <f t="array" ref="AS3">SUM(L2:N4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <f t="array" ref="AT3">SUM(M2:O4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <f t="array" ref="AU3">SUM(N2:P4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <f t="array" ref="AV3">SUM(O2:Q4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <f t="array" ref="AW3">SUM(P2:R4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <f t="array" ref="AX3">SUM(Q2:S4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <f t="array" ref="AY3">SUM(R2:T4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <f t="array" ref="AZ3">SUM(S2:U4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <f t="array" ref="BA3">SUM(T2:V4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <f t="array" ref="BB3">SUM(U2:W4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <f t="array" ref="BC3">SUM(V2:X4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <f t="array" ref="BD3">SUM(W2:Y4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <f t="array" ref="BE3">SUM(X2:Z4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <f t="array" ref="BF3">SUM(Y2:AA4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <f t="array" ref="BG3">SUM(Z2:AB4*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f t="array" ref="AH4">SUM(A3:C5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <f t="array" ref="AI4">SUM(B3:D5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <f t="array" ref="AJ4">SUM(C3:E5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <f t="array" ref="AK4">SUM(D3:F5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <f t="array" ref="AL4">SUM(E3:G5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <f t="array" ref="AM4">SUM(F3:H5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f t="array" ref="AN4">SUM(G3:I5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <f t="array" ref="AO4">SUM(H3:J5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <f t="array" ref="AP4">SUM(I3:K5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <f t="array" ref="AQ4">SUM(J3:L5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <f t="array" ref="AR4">SUM(K3:M5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <f t="array" ref="AS4">SUM(L3:N5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <f t="array" ref="AT4">SUM(M3:O5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <f t="array" ref="AU4">SUM(N3:P5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <f t="array" ref="AV4">SUM(O3:Q5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <f t="array" ref="AW4">SUM(P3:R5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <f t="array" ref="AX4">SUM(Q3:S5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <f t="array" ref="AY4">SUM(R3:T5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <f t="array" ref="AZ4">SUM(S3:U5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <f t="array" ref="BA4">SUM(T3:V5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <f t="array" ref="BB4">SUM(U3:W5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <f t="array" ref="BC4">SUM(V3:X5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <f t="array" ref="BD4">SUM(W3:Y5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <f t="array" ref="BE4">SUM(X3:Z5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <f t="array" ref="BF4">SUM(Y3:AA5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <f t="array" ref="BG4">SUM(Z3:AB5*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f t="array" ref="AH5">SUM(A4:C6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <f t="array" ref="AI5">SUM(B4:D6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <f t="array" ref="AJ5">SUM(C4:E6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <f t="array" ref="AK5">SUM(D4:F6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <f t="array" ref="AL5">SUM(E4:G6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <f t="array" ref="AM5">SUM(F4:H6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <f t="array" ref="AN5">SUM(G4:I6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <f t="array" ref="AO5">SUM(H4:J6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <f t="array" ref="AP5">SUM(I4:K6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <f t="array" ref="AQ5">SUM(J4:L6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <f t="array" ref="AR5">SUM(K4:M6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <f t="array" ref="AS5">SUM(L4:N6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <f t="array" ref="AT5">SUM(M4:O6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <f t="array" ref="AU5">SUM(N4:P6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <f t="array" ref="AV5">SUM(O4:Q6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <f t="array" ref="AW5">SUM(P4:R6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <f t="array" ref="AX5">SUM(Q4:S6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <f t="array" ref="AY5">SUM(R4:T6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <f t="array" ref="AZ5">SUM(S4:U6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <f t="array" ref="BA5">SUM(T4:V6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <f t="array" ref="BB5">SUM(U4:W6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <f t="array" ref="BC5">SUM(V4:X6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <f t="array" ref="BD5">SUM(W4:Y6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <f t="array" ref="BE5">SUM(X4:Z6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <f t="array" ref="BF5">SUM(Y4:AA6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <f t="array" ref="BG5">SUM(Z4:AB6*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <f t="array" ref="BO5">SUM(AH4:AJ6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <f t="array" ref="BP5">SUM(AI4:AK6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <f t="array" ref="BQ5">SUM(AJ4:AL6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <f t="array" ref="BR5">SUM(AK4:AM6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <f t="array" ref="BS5">SUM(AL4:AN6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <f t="array" ref="BT5">SUM(AM4:AO6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <f t="array" ref="BU5">SUM(AN4:AP6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <f t="array" ref="BV5">SUM(AO4:AQ6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <f t="array" ref="BW5">SUM(AP4:AR6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <f t="array" ref="BX5">SUM(AQ4:AS6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <f t="array" ref="BY5">SUM(AR4:AT6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <f t="array" ref="BZ5">SUM(AS4:AU6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <f t="array" ref="CA5">SUM(AT4:AV6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <f t="array" ref="CB5">SUM(AU4:AW6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <f t="array" ref="CC5">SUM(AV4:AX6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <f t="array" ref="CD5">SUM(AW4:AY6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <f t="array" ref="CE5">SUM(AX4:AZ6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <f t="array" ref="CF5">SUM(AY4:BA6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <f t="array" ref="CG5">SUM(AZ4:BB6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <f t="array" ref="CH5">SUM(BA4:BC6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <f t="array" ref="CI5">SUM(BB4:BD6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <f t="array" ref="CJ5">SUM(BC4:BE6*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f t="array" ref="AH6">SUM(A5:C7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <f t="array" ref="AI6">SUM(B5:D7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <f t="array" ref="AJ6">SUM(C5:E7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <f t="array" ref="AK6">SUM(D5:F7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <f t="array" ref="AL6">SUM(E5:G7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <f t="array" ref="AM6">SUM(F5:H7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <f t="array" ref="AN6">SUM(G5:I7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <f t="array" ref="AO6">SUM(H5:J7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <f t="array" ref="AP6">SUM(I5:K7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <f t="array" ref="AQ6">SUM(J5:L7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <f t="array" ref="AR6">SUM(K5:M7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <f t="array" ref="AS6">SUM(L5:N7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <f t="array" ref="AT6">SUM(M5:O7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <f t="array" ref="AU6">SUM(N5:P7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <f t="array" ref="AV6">SUM(O5:Q7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <f t="array" ref="AW6">SUM(P5:R7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <f t="array" ref="AX6">SUM(Q5:S7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <f t="array" ref="AY6">SUM(R5:T7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <f t="array" ref="AZ6">SUM(S5:U7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <f t="array" ref="BA6">SUM(T5:V7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <f t="array" ref="BB6">SUM(U5:W7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <f t="array" ref="BC6">SUM(V5:X7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <f t="array" ref="BD6">SUM(W5:Y7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <f t="array" ref="BE6">SUM(X5:Z7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <f t="array" ref="BF6">SUM(Y5:AA7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <f t="array" ref="BG6">SUM(Z5:AB7*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <f t="array" ref="BO6">SUM(AH5:AJ7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <f t="array" ref="BP6">SUM(AI5:AK7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <f t="array" ref="BQ6">SUM(AJ5:AL7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <f t="array" ref="BR6">SUM(AK5:AM7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <f t="array" ref="BS6">SUM(AL5:AN7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <f t="array" ref="BT6">SUM(AM5:AO7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <f t="array" ref="BU6">SUM(AN5:AP7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <f t="array" ref="BV6">SUM(AO5:AQ7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <f t="array" ref="BW6">SUM(AP5:AR7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <f t="array" ref="BX6">SUM(AQ5:AS7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <f t="array" ref="BY6">SUM(AR5:AT7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <f t="array" ref="BZ6">SUM(AS5:AU7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <f t="array" ref="CA6">SUM(AT5:AV7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <f t="array" ref="CB6">SUM(AU5:AW7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <f t="array" ref="CC6">SUM(AV5:AX7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <f t="array" ref="CD6">SUM(AW5:AY7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <f t="array" ref="CE6">SUM(AX5:AZ7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <f t="array" ref="CF6">SUM(AY5:BA7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <f t="array" ref="CG6">SUM(AZ5:BB7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <f t="array" ref="CH6">SUM(BA5:BC7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <f t="array" ref="CI6">SUM(BB5:BD7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <f t="array" ref="CJ6">SUM(BC5:BE7*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="array" ref="AH7">SUM(A6:C8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f t="array" ref="AI7">SUM(B6:D8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f t="array" ref="AJ7">SUM(C6:E8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f t="array" ref="AK7">SUM(D6:F8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <f t="array" ref="AL7">SUM(E6:G8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <f t="array" ref="AM7">SUM(F6:H8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f t="array" ref="AN7">SUM(G6:I8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <f t="array" ref="AO7">SUM(H6:J8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <f t="array" ref="AP7">SUM(I6:K8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <f t="array" ref="AQ7">SUM(J6:L8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <f t="array" ref="AR7">SUM(K6:M8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <f t="array" ref="AS7">SUM(L6:N8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <f t="array" ref="AT7">SUM(M6:O8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <f t="array" ref="AU7">SUM(N6:P8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <f t="array" ref="AV7">SUM(O6:Q8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <f t="array" ref="AW7">SUM(P6:R8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <f t="array" ref="AX7">SUM(Q6:S8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <f t="array" ref="AY7">SUM(R6:T8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <f t="array" ref="AZ7">SUM(S6:U8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <f t="array" ref="BA7">SUM(T6:V8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <f t="array" ref="BB7">SUM(U6:W8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <f t="array" ref="BC7">SUM(V6:X8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <f t="array" ref="BD7">SUM(W6:Y8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <f t="array" ref="BE7">SUM(X6:Z8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <f t="array" ref="BF7">SUM(Y6:AA8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <f t="array" ref="BG7">SUM(Z6:AB8*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <f t="array" ref="BO7">SUM(AH6:AJ8*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <f t="array" ref="BP7">SUM(AI6:AK8*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <f t="array" ref="BQ7">SUM(AJ6:AL8*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <f t="array" ref="BR7">SUM(AK6:AM8*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <f t="array" ref="BS7">SUM(AL6:AN8*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <f t="array" ref="BT7">SUM(AM6:AO8*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <f t="array" ref="BU7">SUM(AN6:AP8*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <f t="array" ref="BV7">SUM(AO6:AQ8*$BI$11:$BK$13)</f>
+        <v>3.5271293591350859E-2</v>
+      </c>
+      <c r="BW7">
+        <f t="array" ref="BW7">SUM(AP6:AR8*$BI$11:$BK$13)</f>
+        <v>0.20586102489016778</v>
+      </c>
+      <c r="BX7">
+        <f t="array" ref="BX7">SUM(AQ6:AS8*$BI$11:$BK$13)</f>
+        <v>0.60319276058709581</v>
+      </c>
+      <c r="BY7">
+        <f t="array" ref="BY7">SUM(AR6:AT8*$BI$11:$BK$13)</f>
+        <v>0.81479598873471126</v>
+      </c>
+      <c r="BZ7">
+        <f t="array" ref="BZ7">SUM(AS6:AU8*$BI$11:$BK$13)</f>
+        <v>1.0113604566252694</v>
+      </c>
+      <c r="CA7">
+        <f t="array" ref="CA7">SUM(AT6:AV8*$BI$11:$BK$13)</f>
+        <v>1.0120852085056136</v>
+      </c>
+      <c r="CB7">
+        <f t="array" ref="CB7">SUM(AU6:AW8*$BI$11:$BK$13)</f>
+        <v>0.72060237130668581</v>
+      </c>
+      <c r="CC7">
+        <f t="array" ref="CC7">SUM(AV6:AX8*$BI$11:$BK$13)</f>
+        <v>0.42349847365307236</v>
+      </c>
+      <c r="CD7">
+        <f t="array" ref="CD7">SUM(AW6:AY8*$BI$11:$BK$13)</f>
+        <v>0.14273671109768665</v>
+      </c>
+      <c r="CE7">
+        <f t="array" ref="CE7">SUM(AX6:AZ8*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <f t="array" ref="CF7">SUM(AY6:BA8*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <f t="array" ref="CG7">SUM(AZ6:BB8*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <f t="array" ref="CH7">SUM(BA6:BC8*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <f t="array" ref="CI7">SUM(BB6:BD8*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <f t="array" ref="CJ7">SUM(BC6:BE8*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="array" ref="AH8">SUM(A7:C9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <f t="array" ref="AI8">SUM(B7:D9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <f t="array" ref="AJ8">SUM(C7:E9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <f t="array" ref="AK8">SUM(D7:F9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <f t="array" ref="AL8">SUM(E7:G9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <f t="array" ref="AM8">SUM(F7:H9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f t="array" ref="AN8">SUM(G7:I9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <f t="array" ref="AO8">SUM(H7:J9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <f t="array" ref="AP8">SUM(I7:K9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <f t="array" ref="AQ8">SUM(J7:L9*$AD$11:$AF$13)</f>
+        <v>0.32447386682185625</v>
+      </c>
+      <c r="AR8">
+        <f t="array" ref="AR8">SUM(K7:M9*$AD$11:$AF$13)</f>
+        <v>0.44552021586654056</v>
+      </c>
+      <c r="AS8">
+        <f t="array" ref="AS8">SUM(L7:N9*$AD$11:$AF$13)</f>
+        <v>0.61033749846950025</v>
+      </c>
+      <c r="AT8">
+        <f t="array" ref="AT8">SUM(M7:O9*$AD$11:$AF$13)</f>
+        <v>0.72075331911565477</v>
+      </c>
+      <c r="AU8">
+        <f t="array" ref="AU8">SUM(N7:P9*$AD$11:$AF$13)</f>
+        <v>0.53767668151648662</v>
+      </c>
+      <c r="AV8">
+        <f t="array" ref="AV8">SUM(O7:Q9*$AD$11:$AF$13)</f>
+        <v>0.35760138631309474</v>
+      </c>
+      <c r="AW8">
+        <f t="array" ref="AW8">SUM(P7:R9*$AD$11:$AF$13)</f>
+        <v>0.14442310525178695</v>
+      </c>
+      <c r="AX8">
+        <f t="array" ref="AX8">SUM(Q7:S9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <f t="array" ref="AY8">SUM(R7:T9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <f t="array" ref="AZ8">SUM(S7:U9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <f t="array" ref="BA8">SUM(T7:V9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <f t="array" ref="BB8">SUM(U7:W9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <f t="array" ref="BC8">SUM(V7:X9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <f t="array" ref="BD8">SUM(W7:Y9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <f t="array" ref="BE8">SUM(X7:Z9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <f t="array" ref="BF8">SUM(Y7:AA9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <f t="array" ref="BG8">SUM(Z7:AB9*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <f t="array" ref="BO8">SUM(AH7:AJ9*$BI$11:$BK$13)</f>
+        <v>0.20879627764553538</v>
+      </c>
+      <c r="BP8">
+        <f t="array" ref="BP8">SUM(AI7:AK9*$BI$11:$BK$13)</f>
+        <v>0.70536678843882272</v>
+      </c>
+      <c r="BQ8">
+        <f t="array" ref="BQ8">SUM(AJ7:AL9*$BI$11:$BK$13)</f>
+        <v>1.2946818452732605</v>
+      </c>
+      <c r="BR8">
+        <f t="array" ref="BR8">SUM(AK7:AM9*$BI$11:$BK$13)</f>
+        <v>2.0272548929760452</v>
+      </c>
+      <c r="BS8">
+        <f t="array" ref="BS8">SUM(AL7:AN9*$BI$11:$BK$13)</f>
+        <v>2.3739383648058539</v>
+      </c>
+      <c r="BT8">
+        <f t="array" ref="BT8">SUM(AM7:AO9*$BI$11:$BK$13)</f>
+        <v>2.6009131421999765</v>
+      </c>
+      <c r="BU8">
+        <f t="array" ref="BU8">SUM(AN7:AP9*$BI$11:$BK$13)</f>
+        <v>2.6009131421999765</v>
+      </c>
+      <c r="BV8">
+        <f t="array" ref="BV8">SUM(AO7:AQ9*$BI$11:$BK$13)</f>
+        <v>2.7964546502087382</v>
+      </c>
+      <c r="BW8">
+        <f t="array" ref="BW8">SUM(AP7:AR9*$BI$11:$BK$13)</f>
+        <v>3.2732076730247632</v>
+      </c>
+      <c r="BX8">
+        <f t="array" ref="BX8">SUM(AQ7:AS9*$BI$11:$BK$13)</f>
+        <v>3.8783212386743791</v>
+      </c>
+      <c r="BY8">
+        <f t="array" ref="BY8">SUM(AR7:AT9*$BI$11:$BK$13)</f>
+        <v>4.2882023518614227</v>
+      </c>
+      <c r="BZ8">
+        <f t="array" ref="BZ8">SUM(AS7:AU9*$BI$11:$BK$13)</f>
+        <v>4.6239452971676265</v>
+      </c>
+      <c r="CA8">
+        <f t="array" ref="CA8">SUM(AT7:AV9*$BI$11:$BK$13)</f>
+        <v>4.4042610318809086</v>
+      </c>
+      <c r="CB8">
+        <f t="array" ref="CB8">SUM(AU7:AW9*$BI$11:$BK$13)</f>
+        <v>3.8124137600289938</v>
+      </c>
+      <c r="CC8">
+        <f t="array" ref="CC8">SUM(AV7:AX9*$BI$11:$BK$13)</f>
+        <v>3.1732196038786293</v>
+      </c>
+      <c r="CD8">
+        <f t="array" ref="CD8">SUM(AW7:AY9*$BI$11:$BK$13)</f>
+        <v>2.188703651592268</v>
+      </c>
+      <c r="CE8">
+        <f t="array" ref="CE8">SUM(AX7:AZ9*$BI$11:$BK$13)</f>
+        <v>1.0968523701610717</v>
+      </c>
+      <c r="CF8">
+        <f t="array" ref="CF8">SUM(AY7:BA9*$BI$11:$BK$13)</f>
+        <v>0.49532877575254647</v>
+      </c>
+      <c r="CG8">
+        <f t="array" ref="CG8">SUM(AZ7:BB9*$BI$11:$BK$13)</f>
+        <v>4.9138866078709313E-2</v>
+      </c>
+      <c r="CH8">
+        <f t="array" ref="CH8">SUM(BA7:BC9*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <f t="array" ref="CI8">SUM(BB7:BD9*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <f t="array" ref="CJ8">SUM(BC7:BE9*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.38039219379424999</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.37647062540054299</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.30196079611778198</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.46274513006210299</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.23921570181846599</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH9">
+        <f t="array" ref="AH9">SUM(A8:C10*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f t="array" ref="AI9">SUM(B8:D10*$AD$11:$AF$13)</f>
+        <v>0.30105820519584381</v>
+      </c>
+      <c r="AJ9">
+        <f t="array" ref="AJ9">SUM(C8:E10*$AD$11:$AF$13)</f>
+        <v>0.57703732290492527</v>
+      </c>
+      <c r="AK9">
+        <f t="array" ref="AK9">SUM(D8:F10*$AD$11:$AF$13)</f>
+        <v>1.1761489782931493</v>
+      </c>
+      <c r="AL9">
+        <f t="array" ref="AL9">SUM(E8:G10*$AD$11:$AF$13)</f>
+        <v>1.4141848327486644</v>
+      </c>
+      <c r="AM9">
+        <f t="array" ref="AM9">SUM(F8:H10*$AD$11:$AF$13)</f>
+        <v>1.6438412533919702</v>
+      </c>
+      <c r="AN9">
+        <f t="array" ref="AN9">SUM(G8:I10*$AD$11:$AF$13)</f>
+        <v>1.6438412533919702</v>
+      </c>
+      <c r="AO9">
+        <f t="array" ref="AO9">SUM(H8:J10*$AD$11:$AF$13)</f>
+        <v>1.6438412533919702</v>
+      </c>
+      <c r="AP9">
+        <f t="array" ref="AP9">SUM(I8:K10*$AD$11:$AF$13)</f>
+        <v>1.6438412533919702</v>
+      </c>
+      <c r="AQ9">
+        <f t="array" ref="AQ9">SUM(J8:L10*$AD$11:$AF$13)</f>
+        <v>1.9120883730132079</v>
+      </c>
+      <c r="AR9">
+        <f t="array" ref="AR9">SUM(K8:M10*$AD$11:$AF$13)</f>
+        <v>1.9484997862886886</v>
+      </c>
+      <c r="AS9">
+        <f t="array" ref="AS9">SUM(L8:N10*$AD$11:$AF$13)</f>
+        <v>2.2052166946673468</v>
+      </c>
+      <c r="AT9">
+        <f t="array" ref="AT9">SUM(M8:O10*$AD$11:$AF$13)</f>
+        <v>2.3058586826234815</v>
+      </c>
+      <c r="AU9">
+        <f t="array" ref="AU9">SUM(N8:P10*$AD$11:$AF$13)</f>
+        <v>2.1047134267144356</v>
+      </c>
+      <c r="AV9">
+        <f t="array" ref="AV9">SUM(O8:Q10*$AD$11:$AF$13)</f>
+        <v>2.0428486673556665</v>
+      </c>
+      <c r="AW9">
+        <f t="array" ref="AW9">SUM(P8:R10*$AD$11:$AF$13)</f>
+        <v>1.6874843194146827</v>
+      </c>
+      <c r="AX9">
+        <f t="array" ref="AX9">SUM(Q8:S10*$AD$11:$AF$13)</f>
+        <v>0.87028432888683172</v>
+      </c>
+      <c r="AY9">
+        <f t="array" ref="AY9">SUM(R8:T10*$AD$11:$AF$13)</f>
+        <v>0.47677254269224534</v>
+      </c>
+      <c r="AZ9">
+        <f t="array" ref="AZ9">SUM(S8:U10*$AD$11:$AF$13)</f>
+        <v>4.9719427980808487E-2</v>
+      </c>
+      <c r="BA9">
+        <f t="array" ref="BA9">SUM(T8:V10*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <f t="array" ref="BB9">SUM(U8:W10*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <f t="array" ref="BC9">SUM(V8:X10*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <f t="array" ref="BD9">SUM(W8:Y10*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <f t="array" ref="BE9">SUM(X8:Z10*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <f t="array" ref="BF9">SUM(Y8:AA10*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <f t="array" ref="BG9">SUM(Z8:AB10*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BI9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BO9">
+        <f t="array" ref="BO9">SUM(AH8:AJ10*$BI$11:$BK$13)</f>
+        <v>1.8086226490387998</v>
+      </c>
+      <c r="BP9">
+        <f t="array" ref="BP9">SUM(AI8:AK10*$BI$11:$BK$13)</f>
+        <v>3.5685388070907194</v>
+      </c>
+      <c r="BQ9">
+        <f t="array" ref="BQ9">SUM(AJ8:AL10*$BI$11:$BK$13)</f>
+        <v>5.2752599076985867</v>
+      </c>
+      <c r="BR9">
+        <f t="array" ref="BR9">SUM(AK8:AM10*$BI$11:$BK$13)</f>
+        <v>6.6331950806057636</v>
+      </c>
+      <c r="BS9">
+        <f t="array" ref="BS9">SUM(AL8:AN10*$BI$11:$BK$13)</f>
+        <v>7.198040064680125</v>
+      </c>
+      <c r="BT9">
+        <f t="array" ref="BT9">SUM(AM8:AO10*$BI$11:$BK$13)</f>
+        <v>7.5404800525965419</v>
+      </c>
+      <c r="BU9">
+        <f t="array" ref="BU9">SUM(AN8:AP10*$BI$11:$BK$13)</f>
+        <v>7.5404800525965419</v>
+      </c>
+      <c r="BV9">
+        <f t="array" ref="BV9">SUM(AO8:AQ10*$BI$11:$BK$13)</f>
+        <v>7.8540288417957829</v>
+      </c>
+      <c r="BW9">
+        <f t="array" ref="BW9">SUM(AP8:AR10*$BI$11:$BK$13)</f>
+        <v>8.6707842986912969</v>
+      </c>
+      <c r="BX9">
+        <f t="array" ref="BX9">SUM(AQ8:AS10*$BI$11:$BK$13)</f>
+        <v>9.5886828716899632</v>
+      </c>
+      <c r="BY9">
+        <f t="array" ref="BY9">SUM(AR8:AT10*$BI$11:$BK$13)</f>
+        <v>10.364981920888511</v>
+      </c>
+      <c r="BZ9">
+        <f t="array" ref="BZ9">SUM(AS8:AU10*$BI$11:$BK$13)</f>
+        <v>10.841249188538091</v>
+      </c>
+      <c r="CA9">
+        <f t="array" ref="CA9">SUM(AT8:AV10*$BI$11:$BK$13)</f>
+        <v>10.4131750092149</v>
+      </c>
+      <c r="CB9">
+        <f t="array" ref="CB9">SUM(AU8:AW10*$BI$11:$BK$13)</f>
+        <v>9.472925168294946</v>
+      </c>
+      <c r="CC9">
+        <f t="array" ref="CC9">SUM(AV8:AX10*$BI$11:$BK$13)</f>
+        <v>8.0284898448447706</v>
+      </c>
+      <c r="CD9">
+        <f t="array" ref="CD9">SUM(AW8:AY10*$BI$11:$BK$13)</f>
+        <v>5.9437458746168739</v>
+      </c>
+      <c r="CE9">
+        <f t="array" ref="CE9">SUM(AX8:AZ10*$BI$11:$BK$13)</f>
+        <v>3.7558007053833236</v>
+      </c>
+      <c r="CF9">
+        <f t="array" ref="CF9">SUM(AY8:BA10*$BI$11:$BK$13)</f>
+        <v>1.9021052410443873</v>
+      </c>
+      <c r="CG9">
+        <f t="array" ref="CG9">SUM(AZ8:BB10*$BI$11:$BK$13)</f>
+        <v>0.57195760633825177</v>
+      </c>
+      <c r="CH9">
+        <f t="array" ref="CH9">SUM(BA8:BC10*$BI$11:$BK$13)</f>
+        <v>5.3818757662809413E-2</v>
+      </c>
+      <c r="CI9">
+        <f t="array" ref="CI9">SUM(BB8:BD10*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <f t="array" ref="CJ9">SUM(BC8:BE10*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.35294118523597701</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.541176497936248</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.92156869173049905</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.92156869173049905</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.92156869173049905</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.92156869173049905</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.92156869173049905</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.92156869173049905</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.98431378602981501</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.98431378602981501</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.97254908084869296</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.96078437566757202</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.92156869173049905</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.74509805440902699</v>
+      </c>
+      <c r="S10" s="2">
+        <v>8.2352943718433297E-2</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <f t="array" ref="AH10">SUM(A9:C11*$AD$11:$AF$13)</f>
+        <v>0.46831277493634732</v>
+      </c>
+      <c r="AI10">
+        <f t="array" ref="AI10">SUM(B9:D11*$AD$11:$AF$13)</f>
+        <v>1.2183819270071643</v>
+      </c>
+      <c r="AJ10">
+        <f t="array" ref="AJ10">SUM(C9:E11*$AD$11:$AF$13)</f>
+        <v>1.8252811211592963</v>
+      </c>
+      <c r="AK10">
+        <f t="array" ref="AK10">SUM(D9:F11*$AD$11:$AF$13)</f>
+        <v>2.567168660281256</v>
+      </c>
+      <c r="AL10">
+        <f t="array" ref="AL10">SUM(E9:G11*$AD$11:$AF$13)</f>
+        <v>2.7265393624483822</v>
+      </c>
+      <c r="AM10">
+        <f t="array" ref="AM10">SUM(F9:H11*$AD$11:$AF$13)</f>
+        <v>2.9976564237508723</v>
+      </c>
+      <c r="AN10">
+        <f t="array" ref="AN10">SUM(G9:I11*$AD$11:$AF$13)</f>
+        <v>2.9976564237508723</v>
+      </c>
+      <c r="AO10">
+        <f t="array" ref="AO10">SUM(H9:J11*$AD$11:$AF$13)</f>
+        <v>2.9976564237508723</v>
+      </c>
+      <c r="AP10">
+        <f t="array" ref="AP10">SUM(I9:K11*$AD$11:$AF$13)</f>
+        <v>2.9976564237508723</v>
+      </c>
+      <c r="AQ10">
+        <f t="array" ref="AQ10">SUM(J9:L11*$AD$11:$AF$13)</f>
+        <v>3.3907688049804126</v>
+      </c>
+      <c r="AR10">
+        <f t="array" ref="AR10">SUM(K9:M11*$AD$11:$AF$13)</f>
+        <v>3.4957152112779464</v>
+      </c>
+      <c r="AS10">
+        <f t="array" ref="AS10">SUM(L9:N11*$AD$11:$AF$13)</f>
+        <v>3.8349850857318186</v>
+      </c>
+      <c r="AT10">
+        <f t="array" ref="AT10">SUM(M9:O11*$AD$11:$AF$13)</f>
+        <v>3.9743648193684531</v>
+      </c>
+      <c r="AU10">
+        <f t="array" ref="AU10">SUM(N9:P11*$AD$11:$AF$13)</f>
+        <v>3.7087073894346401</v>
+      </c>
+      <c r="AV10">
+        <f t="array" ref="AV10">SUM(O9:Q11*$AD$11:$AF$13)</f>
+        <v>3.5720203201577743</v>
+      </c>
+      <c r="AW10">
+        <f t="array" ref="AW10">SUM(P9:R11*$AD$11:$AF$13)</f>
+        <v>3.1601457180810222</v>
+      </c>
+      <c r="AX10">
+        <f t="array" ref="AX10">SUM(Q9:S11*$AD$11:$AF$13)</f>
+        <v>2.2981006993976152</v>
+      </c>
+      <c r="AY10">
+        <f t="array" ref="AY10">SUM(R9:T11*$AD$11:$AF$13)</f>
+        <v>1.4556504138497013</v>
+      </c>
+      <c r="AZ10">
+        <f t="array" ref="AZ10">SUM(S9:U11*$AD$11:$AF$13)</f>
+        <v>0.53566516502777106</v>
+      </c>
+      <c r="BA10">
+        <f t="array" ref="BA10">SUM(T9:V11*$AD$11:$AF$13)</f>
+        <v>5.4454611169630011E-2</v>
+      </c>
+      <c r="BB10">
+        <f t="array" ref="BB10">SUM(U9:W11*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <f t="array" ref="BC10">SUM(V9:X11*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <f t="array" ref="BD10">SUM(W9:Y11*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <f t="array" ref="BE10">SUM(X9:Z11*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <f t="array" ref="BF10">SUM(Y9:AA11*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <f t="array" ref="BG10">SUM(Z9:AB11*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <f t="array" ref="BO10">SUM(AH9:AJ11*$BI$11:$BK$13)</f>
+        <v>5.063525104375989</v>
+      </c>
+      <c r="BP10">
+        <f t="array" ref="BP10">SUM(AI9:AK11*$BI$11:$BK$13)</f>
+        <v>8.3594916092185585</v>
+      </c>
+      <c r="BQ10">
+        <f t="array" ref="BQ10">SUM(AJ9:AL11*$BI$11:$BK$13)</f>
+        <v>11.586587295716711</v>
+      </c>
+      <c r="BR10">
+        <f t="array" ref="BR10">SUM(AK9:AM11*$BI$11:$BK$13)</f>
+        <v>13.596662103018764</v>
+      </c>
+      <c r="BS10">
+        <f t="array" ref="BS10">SUM(AL9:AN11*$BI$11:$BK$13)</f>
+        <v>14.456082450730715</v>
+      </c>
+      <c r="BT10">
+        <f t="array" ref="BT10">SUM(AM9:AO11*$BI$11:$BK$13)</f>
+        <v>14.873749473165569</v>
+      </c>
+      <c r="BU10">
+        <f t="array" ref="BU10">SUM(AN9:AP11*$BI$11:$BK$13)</f>
+        <v>14.739642639168402</v>
+      </c>
+      <c r="BV10">
+        <f t="array" ref="BV10">SUM(AO9:AQ11*$BI$11:$BK$13)</f>
+        <v>14.669203767336063</v>
+      </c>
+      <c r="BW10">
+        <f t="array" ref="BW10">SUM(AP9:AR11*$BI$11:$BK$13)</f>
+        <v>14.896787769763412</v>
+      </c>
+      <c r="BX10">
+        <f t="array" ref="BX10">SUM(AQ9:AS11*$BI$11:$BK$13)</f>
+        <v>15.178485382300101</v>
+      </c>
+      <c r="BY10">
+        <f t="array" ref="BY10">SUM(AR9:AT11*$BI$11:$BK$13)</f>
+        <v>15.729263982250721</v>
+      </c>
+      <c r="BZ10">
+        <f t="array" ref="BZ10">SUM(AS9:AU11*$BI$11:$BK$13)</f>
+        <v>15.922755371071419</v>
+      </c>
+      <c r="CA10">
+        <f t="array" ref="CA10">SUM(AT9:AV11*$BI$11:$BK$13)</f>
+        <v>15.599758688204259</v>
+      </c>
+      <c r="CB10">
+        <f t="array" ref="CB10">SUM(AU9:AW11*$BI$11:$BK$13)</f>
+        <v>15.359851247861528</v>
+      </c>
+      <c r="CC10">
+        <f t="array" ref="CC10">SUM(AV9:AX11*$BI$11:$BK$13)</f>
+        <v>14.229172956258605</v>
+      </c>
+      <c r="CD10">
+        <f t="array" ref="CD10">SUM(AW9:AY11*$BI$11:$BK$13)</f>
+        <v>11.740147882685468</v>
+      </c>
+      <c r="CE10">
+        <f t="array" ref="CE10">SUM(AX9:AZ11*$BI$11:$BK$13)</f>
+        <v>8.4679764100632227</v>
+      </c>
+      <c r="CF10">
+        <f t="array" ref="CF10">SUM(AY9:BA11*$BI$11:$BK$13)</f>
+        <v>4.8918634325777264</v>
+      </c>
+      <c r="CG10">
+        <f t="array" ref="CG10">SUM(AZ9:BB11*$BI$11:$BK$13)</f>
+        <v>1.997916731810645</v>
+      </c>
+      <c r="CH10">
+        <f t="array" ref="CH10">SUM(BA9:BC11*$BI$11:$BK$13)</f>
+        <v>0.57418593448161792</v>
+      </c>
+      <c r="CI10">
+        <f t="array" ref="CI10">SUM(BB9:BD11*$BI$11:$BK$13)</f>
+        <v>4.9138866078709313E-2</v>
+      </c>
+      <c r="CJ10">
+        <f t="array" ref="CJ10">SUM(BC9:BE11*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.549019634723663</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.98431378602981501</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.74117648601531905</v>
+      </c>
+      <c r="T11" s="2">
+        <v>9.0196080505847903E-2</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0.97884086158158967</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0.27773247113378552</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>0.94032876108039765</v>
+      </c>
+      <c r="AH11">
+        <f t="array" ref="AH11">SUM(A10:C12*$AD$11:$AF$13)</f>
+        <v>1.0659039586543724</v>
+      </c>
+      <c r="AI11">
+        <f t="array" ref="AI11">SUM(B10:D12*$AD$11:$AF$13)</f>
+        <v>2.0531171485579427</v>
+      </c>
+      <c r="AJ11">
+        <f t="array" ref="AJ11">SUM(C10:E12*$AD$11:$AF$13)</f>
+        <v>3.1639160777270785</v>
+      </c>
+      <c r="AK11">
+        <f t="array" ref="AK11">SUM(D10:F12*$AD$11:$AF$13)</f>
+        <v>4.2073664713558045</v>
+      </c>
+      <c r="AL11">
+        <f t="array" ref="AL11">SUM(E10:G12*$AD$11:$AF$13)</f>
+        <v>4.3852005280971751</v>
+      </c>
+      <c r="AM11">
+        <f t="array" ref="AM11">SUM(F10:H12*$AD$11:$AF$13)</f>
+        <v>4.7362356264599548</v>
+      </c>
+      <c r="AN11">
+        <f t="array" ref="AN11">SUM(G10:I12*$AD$11:$AF$13)</f>
+        <v>4.7362356264599548</v>
+      </c>
+      <c r="AO11">
+        <f t="array" ref="AO11">SUM(H10:J12*$AD$11:$AF$13)</f>
+        <v>4.5355301224342881</v>
+      </c>
+      <c r="AP11">
+        <f t="array" ref="AP11">SUM(I10:K12*$AD$11:$AF$13)</f>
+        <v>4.1976698417200033</v>
+      </c>
+      <c r="AQ11">
+        <f t="array" ref="AQ11">SUM(J10:L12*$AD$11:$AF$13)</f>
+        <v>4.0145892264476633</v>
+      </c>
+      <c r="AR11">
+        <f t="array" ref="AR11">SUM(K10:M12*$AD$11:$AF$13)</f>
+        <v>3.8473434141821654</v>
+      </c>
+      <c r="AS11">
+        <f t="array" ref="AS11">SUM(L10:N12*$AD$11:$AF$13)</f>
+        <v>3.8976981856986854</v>
+      </c>
+      <c r="AT11">
+        <f t="array" ref="AT11">SUM(M10:O12*$AD$11:$AF$13)</f>
+        <v>3.9165561263514532</v>
+      </c>
+      <c r="AU11">
+        <f t="array" ref="AU11">SUM(N10:P12*$AD$11:$AF$13)</f>
+        <v>4.1025082763466392</v>
+      </c>
+      <c r="AV11">
+        <f t="array" ref="AV11">SUM(O10:Q12*$AD$11:$AF$13)</f>
+        <v>4.4792203182565684</v>
+      </c>
+      <c r="AW11">
+        <f t="array" ref="AW11">SUM(P10:R12*$AD$11:$AF$13)</f>
+        <v>4.654056957003128</v>
+      </c>
+      <c r="AX11">
+        <f t="array" ref="AX11">SUM(Q10:S12*$AD$11:$AF$13)</f>
+        <v>4.0631627752540496</v>
+      </c>
+      <c r="AY11">
+        <f t="array" ref="AY11">SUM(R10:T12*$AD$11:$AF$13)</f>
+        <v>3.1076512664390119</v>
+      </c>
+      <c r="AZ11">
+        <f t="array" ref="AZ11">SUM(S10:U12*$AD$11:$AF$13)</f>
+        <v>1.5271489758805084</v>
+      </c>
+      <c r="BA11">
+        <f t="array" ref="BA11">SUM(T10:V12*$AD$11:$AF$13)</f>
+        <v>0.53869043509747416</v>
+      </c>
+      <c r="BB11">
+        <f t="array" ref="BB11">SUM(U10:W12*$AD$11:$AF$13)</f>
+        <v>4.9719427980808487E-2</v>
+      </c>
+      <c r="BC11">
+        <f t="array" ref="BC11">SUM(V10:X12*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <f t="array" ref="BD11">SUM(W10:Y12*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <f t="array" ref="BE11">SUM(X10:Z12*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <f t="array" ref="BF11">SUM(Y10:AA12*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <f t="array" ref="BG11">SUM(Z10:AB12*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>2.0081238579477412E-2</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>0.96855875035987782</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>0.4107133350065133</v>
+      </c>
+      <c r="BO11">
+        <f t="array" ref="BO11">SUM(AH10:AJ12*$BI$11:$BK$13)</f>
+        <v>8.1257277933453445</v>
+      </c>
+      <c r="BP11">
+        <f t="array" ref="BP11">SUM(AI10:AK12*$BI$11:$BK$13)</f>
+        <v>12.293381860685223</v>
+      </c>
+      <c r="BQ11">
+        <f t="array" ref="BQ11">SUM(AJ10:AL12*$BI$11:$BK$13)</f>
+        <v>15.736768472056653</v>
+      </c>
+      <c r="BR11">
+        <f t="array" ref="BR11">SUM(AK10:AM12*$BI$11:$BK$13)</f>
+        <v>16.984590410099447</v>
+      </c>
+      <c r="BS11">
+        <f t="array" ref="BS11">SUM(AL10:AN12*$BI$11:$BK$13)</f>
+        <v>17.28918589537837</v>
+      </c>
+      <c r="BT11">
+        <f t="array" ref="BT11">SUM(AM10:AO12*$BI$11:$BK$13)</f>
+        <v>17.235852390424025</v>
+      </c>
+      <c r="BU11">
+        <f t="array" ref="BU11">SUM(AN10:AP12*$BI$11:$BK$13)</f>
+        <v>16.804624899489838</v>
+      </c>
+      <c r="BV11">
+        <f t="array" ref="BV11">SUM(AO10:AQ12*$BI$11:$BK$13)</f>
+        <v>16.274662300507561</v>
+      </c>
+      <c r="BW11">
+        <f t="array" ref="BW11">SUM(AP10:AR12*$BI$11:$BK$13)</f>
+        <v>16.051013515210613</v>
+      </c>
+      <c r="BX11">
+        <f t="array" ref="BX11">SUM(AQ10:AS12*$BI$11:$BK$13)</f>
+        <v>15.835807040272169</v>
+      </c>
+      <c r="BY11">
+        <f t="array" ref="BY11">SUM(AR10:AT12*$BI$11:$BK$13)</f>
+        <v>16.00726248088263</v>
+      </c>
+      <c r="BZ11">
+        <f t="array" ref="BZ11">SUM(AS10:AU12*$BI$11:$BK$13)</f>
+        <v>16.184076972815888</v>
+      </c>
+      <c r="CA11">
+        <f t="array" ref="CA11">SUM(AT10:AV12*$BI$11:$BK$13)</f>
+        <v>16.341814443475382</v>
+      </c>
+      <c r="CB11">
+        <f t="array" ref="CB11">SUM(AU10:AW12*$BI$11:$BK$13)</f>
+        <v>16.919225011584977</v>
+      </c>
+      <c r="CC11">
+        <f t="array" ref="CC11">SUM(AV10:AX12*$BI$11:$BK$13)</f>
+        <v>16.96147627289189</v>
+      </c>
+      <c r="CD11">
+        <f t="array" ref="CD11">SUM(AW10:AY12*$BI$11:$BK$13)</f>
+        <v>15.938037384228057</v>
+      </c>
+      <c r="CE11">
+        <f t="array" ref="CE11">SUM(AX10:AZ12*$BI$11:$BK$13)</f>
+        <v>13.104858937774262</v>
+      </c>
+      <c r="CF11">
+        <f t="array" ref="CF11">SUM(AY10:BA12*$BI$11:$BK$13)</f>
+        <v>8.7816909219741479</v>
+      </c>
+      <c r="CG11">
+        <f t="array" ref="CG11">SUM(AZ10:BB12*$BI$11:$BK$13)</f>
+        <v>4.5711855753898476</v>
+      </c>
+      <c r="CH11">
+        <f t="array" ref="CH11">SUM(BA10:BC12*$BI$11:$BK$13)</f>
+        <v>1.732712609666988</v>
+      </c>
+      <c r="CI11">
+        <f t="array" ref="CI11">SUM(BB10:BD12*$BI$11:$BK$13)</f>
+        <v>0.3432302889709366</v>
+      </c>
+      <c r="CJ11">
+        <f t="array" ref="CJ11">SUM(BC10:BE12*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.88627457618713301</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.81568634510040205</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.78039222955703702</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.78039222955703702</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.78039222955703702</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.78039222955703702</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.54509806632995605</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.23921570181846599</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.23921570181846599</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.23921570181846599</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.23921570181846599</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.23921570181846599</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.50196081399917603</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.87058830261230402</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0.74117648601531905</v>
+      </c>
+      <c r="U12" s="2">
+        <v>8.2352943718433297E-2</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0.7127303496904398</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>4.7600627547930929E-2</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0.56448494196819632</v>
+      </c>
+      <c r="AH12">
+        <f t="array" ref="AH12">SUM(A11:C13*$AD$11:$AF$13)</f>
+        <v>1.1436610720286331</v>
+      </c>
+      <c r="AI12">
+        <f t="array" ref="AI12">SUM(B11:D13*$AD$11:$AF$13)</f>
+        <v>2.0055458206291359</v>
+      </c>
+      <c r="AJ12">
+        <f t="array" ref="AJ12">SUM(C11:E13*$AD$11:$AF$13)</f>
+        <v>3.1255617360587271</v>
+      </c>
+      <c r="AK12">
+        <f t="array" ref="AK12">SUM(D11:F13*$AD$11:$AF$13)</f>
+        <v>3.5768669107346978</v>
+      </c>
+      <c r="AL12">
+        <f t="array" ref="AL12">SUM(E11:G13*$AD$11:$AF$13)</f>
+        <v>3.2780968544072704</v>
+      </c>
+      <c r="AM12">
+        <f t="array" ref="AM12">SUM(F11:H13*$AD$11:$AF$13)</f>
+        <v>3.2221629718685101</v>
+      </c>
+      <c r="AN12">
+        <f t="array" ref="AN12">SUM(G11:I13*$AD$11:$AF$13)</f>
+        <v>3.2221629718685101</v>
+      </c>
+      <c r="AO12">
+        <f t="array" ref="AO12">SUM(H11:J13*$AD$11:$AF$13)</f>
+        <v>3.0893429597938162</v>
+      </c>
+      <c r="AP12">
+        <f t="array" ref="AP12">SUM(I11:K13*$AD$11:$AF$13)</f>
+        <v>2.9054768211854785</v>
+      </c>
+      <c r="AQ12">
+        <f t="array" ref="AQ12">SUM(J11:L13*$AD$11:$AF$13)</f>
+        <v>2.7232153374419297</v>
+      </c>
+      <c r="AR12">
+        <f t="array" ref="AR12">SUM(K11:M13*$AD$11:$AF$13)</f>
+        <v>2.5052036928195172</v>
+      </c>
+      <c r="AS12">
+        <f t="array" ref="AS12">SUM(L11:N13*$AD$11:$AF$13)</f>
+        <v>2.5052036928195172</v>
+      </c>
+      <c r="AT12">
+        <f t="array" ref="AT12">SUM(M11:O13*$AD$11:$AF$13)</f>
+        <v>2.5052036928195172</v>
+      </c>
+      <c r="AU12">
+        <f t="array" ref="AU12">SUM(N11:P13*$AD$11:$AF$13)</f>
+        <v>2.6535193522212723</v>
+      </c>
+      <c r="AV12">
+        <f t="array" ref="AV12">SUM(O11:Q13*$AD$11:$AF$13)</f>
+        <v>2.9878439538115926</v>
+      </c>
+      <c r="AW12">
+        <f t="array" ref="AW12">SUM(P11:R13*$AD$11:$AF$13)</f>
+        <v>3.905867070066618</v>
+      </c>
+      <c r="AX12">
+        <f t="array" ref="AX12">SUM(Q11:S13*$AD$11:$AF$13)</f>
+        <v>4.3820747317886894</v>
+      </c>
+      <c r="AY12">
+        <f t="array" ref="AY12">SUM(R11:T13*$AD$11:$AF$13)</f>
+        <v>4.1210736674416459</v>
+      </c>
+      <c r="AZ12">
+        <f t="array" ref="AZ12">SUM(S11:U13*$AD$11:$AF$13)</f>
+        <v>2.8540269106085012</v>
+      </c>
+      <c r="BA12">
+        <f t="array" ref="BA12">SUM(T11:V13*$AD$11:$AF$13)</f>
+        <v>1.369309357896543</v>
+      </c>
+      <c r="BB12">
+        <f t="array" ref="BB12">SUM(U11:W13*$AD$11:$AF$13)</f>
+        <v>0.33096851171717467</v>
+      </c>
+      <c r="BC12">
+        <f t="array" ref="BC12">SUM(V11:X13*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <f t="array" ref="BD12">SUM(W11:Y13*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <f t="array" ref="BE12">SUM(X11:Z13*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <f t="array" ref="BF12">SUM(Y11:AA13*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <f t="array" ref="BG12">SUM(Z11:AB13*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>0.32434841432596195</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>0.86470585204835348</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>0.51277544791982677</v>
+      </c>
+      <c r="BO12">
+        <f t="array" ref="BO12">SUM(AH11:AJ13*$BI$11:$BK$13)</f>
+        <v>8.8135701269885161</v>
+      </c>
+      <c r="BP12">
+        <f t="array" ref="BP12">SUM(AI11:AK13*$BI$11:$BK$13)</f>
+        <v>12.612160590729607</v>
+      </c>
+      <c r="BQ12">
+        <f t="array" ref="BQ12">SUM(AJ11:AL13*$BI$11:$BK$13)</f>
+        <v>15.010188828284859</v>
+      </c>
+      <c r="BR12">
+        <f t="array" ref="BR12">SUM(AK11:AM13*$BI$11:$BK$13)</f>
+        <v>15.118309987152157</v>
+      </c>
+      <c r="BS12">
+        <f t="array" ref="BS12">SUM(AL11:AN13*$BI$11:$BK$13)</f>
+        <v>14.905011605301111</v>
+      </c>
+      <c r="BT12">
+        <f t="array" ref="BT12">SUM(AM11:AO13*$BI$11:$BK$13)</f>
+        <v>14.649273604792057</v>
+      </c>
+      <c r="BU12">
+        <f t="array" ref="BU12">SUM(AN11:AP13*$BI$11:$BK$13)</f>
+        <v>13.961262391484947</v>
+      </c>
+      <c r="BV12">
+        <f t="array" ref="BV12">SUM(AO11:AQ13*$BI$11:$BK$13)</f>
+        <v>12.835068502371032</v>
+      </c>
+      <c r="BW12">
+        <f t="array" ref="BW12">SUM(AP11:AR13*$BI$11:$BK$13)</f>
+        <v>11.718869678732569</v>
+      </c>
+      <c r="BX12">
+        <f t="array" ref="BX12">SUM(AQ11:AS13*$BI$11:$BK$13)</f>
+        <v>10.869396367745857</v>
+      </c>
+      <c r="BY12">
+        <f t="array" ref="BY12">SUM(AR11:AT13*$BI$11:$BK$13)</f>
+        <v>10.555928879495417</v>
+      </c>
+      <c r="BZ12">
+        <f t="array" ref="BZ12">SUM(AS11:AU13*$BI$11:$BK$13)</f>
+        <v>10.754487654545644</v>
+      </c>
+      <c r="CA12">
+        <f t="array" ref="CA12">SUM(AT11:AV13*$BI$11:$BK$13)</f>
+        <v>11.563043612484279</v>
+      </c>
+      <c r="CB12">
+        <f t="array" ref="CB12">SUM(AU11:AW13*$BI$11:$BK$13)</f>
+        <v>13.42189902857915</v>
+      </c>
+      <c r="CC12">
+        <f t="array" ref="CC12">SUM(AV11:AX13*$BI$11:$BK$13)</f>
+        <v>15.69539374435533</v>
+      </c>
+      <c r="CD12">
+        <f t="array" ref="CD12">SUM(AW11:AY13*$BI$11:$BK$13)</f>
+        <v>17.171784643495865</v>
+      </c>
+      <c r="CE12">
+        <f t="array" ref="CE12">SUM(AX11:AZ13*$BI$11:$BK$13)</f>
+        <v>16.473045912446008</v>
+      </c>
+      <c r="CF12">
+        <f t="array" ref="CF12">SUM(AY11:BA13*$BI$11:$BK$13)</f>
+        <v>12.934428870621854</v>
+      </c>
+      <c r="CG12">
+        <f t="array" ref="CG12">SUM(AZ11:BB13*$BI$11:$BK$13)</f>
+        <v>8.0451535189007668</v>
+      </c>
+      <c r="CH12">
+        <f t="array" ref="CH12">SUM(BA11:BC13*$BI$11:$BK$13)</f>
+        <v>3.6065759570356213</v>
+      </c>
+      <c r="CI12">
+        <f t="array" ref="CI12">SUM(BB11:BD13*$BI$11:$BK$13)</f>
+        <v>1.0532382882155844</v>
+      </c>
+      <c r="CJ12">
+        <f t="array" ref="CJ12">SUM(BC11:BE13*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.14901961386203699</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.32156863808631803</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5.0980396568775101E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.133333340287208</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.83529418706893899</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0.450980424880981</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0.60373589256020299</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0.32700839281247063</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>0.85299822687045113</v>
+      </c>
+      <c r="AH13">
+        <f t="array" ref="AH13">SUM(A12:C14*$AD$11:$AF$13)</f>
+        <v>0.91750880228613629</v>
+      </c>
+      <c r="AI13">
+        <f t="array" ref="AI13">SUM(B12:D14*$AD$11:$AF$13)</f>
+        <v>1.3714025628724436</v>
+      </c>
+      <c r="AJ13">
+        <f t="array" ref="AJ13">SUM(C12:E14*$AD$11:$AF$13)</f>
+        <v>2.0614737775484628</v>
+      </c>
+      <c r="AK13">
+        <f t="array" ref="AK13">SUM(D12:F14*$AD$11:$AF$13)</f>
+        <v>2.1669885979528178</v>
+      </c>
+      <c r="AL13">
+        <f t="array" ref="AL13">SUM(E12:G14*$AD$11:$AF$13)</f>
+        <v>1.785327921436854</v>
+      </c>
+      <c r="AM13">
+        <f t="array" ref="AM13">SUM(F12:H14*$AD$11:$AF$13)</f>
+        <v>1.7144453230958061</v>
+      </c>
+      <c r="AN13">
+        <f t="array" ref="AN13">SUM(G12:I14*$AD$11:$AF$13)</f>
+        <v>1.7144453230958061</v>
+      </c>
+      <c r="AO13">
+        <f t="array" ref="AO13">SUM(H12:J14*$AD$11:$AF$13)</f>
+        <v>1.4931914540990361</v>
+      </c>
+      <c r="AP13">
+        <f t="array" ref="AP13">SUM(I12:K14*$AD$11:$AF$13)</f>
+        <v>1.1402126398451906</v>
+      </c>
+      <c r="AQ13">
+        <f t="array" ref="AQ13">SUM(J12:L14*$AD$11:$AF$13)</f>
+        <v>0.82494363341485388</v>
+      </c>
+      <c r="AR13">
+        <f t="array" ref="AR13">SUM(K12:M14*$AD$11:$AF$13)</f>
+        <v>0.52553347619381319</v>
+      </c>
+      <c r="AS13">
+        <f t="array" ref="AS13">SUM(L12:N14*$AD$11:$AF$13)</f>
+        <v>0.52553347619381319</v>
+      </c>
+      <c r="AT13">
+        <f t="array" ref="AT13">SUM(M12:O14*$AD$11:$AF$13)</f>
+        <v>0.52553347619381319</v>
+      </c>
+      <c r="AU13">
+        <f t="array" ref="AU13">SUM(N12:P14*$AD$11:$AF$13)</f>
+        <v>0.77260026201063037</v>
+      </c>
+      <c r="AV13">
+        <f t="array" ref="AV13">SUM(O12:Q14*$AD$11:$AF$13)</f>
+        <v>1.267468803817114</v>
+      </c>
+      <c r="AW13">
+        <f t="array" ref="AW13">SUM(P12:R14*$AD$11:$AF$13)</f>
+        <v>2.4286170511213019</v>
+      </c>
+      <c r="AX13">
+        <f t="array" ref="AX13">SUM(Q12:S14*$AD$11:$AF$13)</f>
+        <v>3.7198881555468972</v>
+      </c>
+      <c r="AY13">
+        <f t="array" ref="AY13">SUM(R12:T14*$AD$11:$AF$13)</f>
+        <v>4.5278769500793015</v>
+      </c>
+      <c r="AZ13">
+        <f t="array" ref="AZ13">SUM(S12:U14*$AD$11:$AF$13)</f>
+        <v>3.9800566712577057</v>
+      </c>
+      <c r="BA13">
+        <f t="array" ref="BA13">SUM(T12:V14*$AD$11:$AF$13)</f>
+        <v>2.3812148872379821</v>
+      </c>
+      <c r="BB13">
+        <f t="array" ref="BB13">SUM(U12:W14*$AD$11:$AF$13)</f>
+        <v>0.95605436737513638</v>
+      </c>
+      <c r="BC13">
+        <f t="array" ref="BC13">SUM(V12:X14*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <f t="array" ref="BD13">SUM(W12:Y14*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <f t="array" ref="BE13">SUM(X12:Z14*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <f t="array" ref="BF13">SUM(Y12:AA14*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <f t="array" ref="BG13">SUM(Z12:AB14*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>0.98832323850702253</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>0.48519046391745313</v>
+      </c>
+      <c r="BK13" s="1">
+        <v>0.10870303342708221</v>
+      </c>
+      <c r="BO13">
+        <f t="array" ref="BO13">SUM(AH12:AJ14*$BI$11:$BK$13)</f>
+        <v>6.1257499656128696</v>
+      </c>
+      <c r="BP13">
+        <f t="array" ref="BP13">SUM(AI12:AK14*$BI$11:$BK$13)</f>
+        <v>8.3880635273918074</v>
+      </c>
+      <c r="BQ13">
+        <f t="array" ref="BQ13">SUM(AJ12:AL14*$BI$11:$BK$13)</f>
+        <v>8.7762687725659578</v>
+      </c>
+      <c r="BR13">
+        <f t="array" ref="BR13">SUM(AK12:AM14*$BI$11:$BK$13)</f>
+        <v>8.0453053968425223</v>
+      </c>
+      <c r="BS13">
+        <f t="array" ref="BS13">SUM(AL12:AN14*$BI$11:$BK$13)</f>
+        <v>7.5000713444787461</v>
+      </c>
+      <c r="BT13">
+        <f t="array" ref="BT13">SUM(AM12:AO14*$BI$11:$BK$13)</f>
+        <v>7.2586339574629442</v>
+      </c>
+      <c r="BU13">
+        <f t="array" ref="BU13">SUM(AN12:AP14*$BI$11:$BK$13)</f>
+        <v>6.6821553126674242</v>
+      </c>
+      <c r="BV13">
+        <f t="array" ref="BV13">SUM(AO12:AQ14*$BI$11:$BK$13)</f>
+        <v>5.8878973491467574</v>
+      </c>
+      <c r="BW13">
+        <f t="array" ref="BW13">SUM(AP12:AR14*$BI$11:$BK$13)</f>
+        <v>5.0775005937797211</v>
+      </c>
+      <c r="BX13">
+        <f t="array" ref="BX13">SUM(AQ12:AS14*$BI$11:$BK$13)</f>
+        <v>4.5015247539278791</v>
+      </c>
+      <c r="BY13">
+        <f t="array" ref="BY13">SUM(AR12:AT14*$BI$11:$BK$13)</f>
+        <v>4.4000336003513807</v>
+      </c>
+      <c r="BZ13">
+        <f t="array" ref="BZ13">SUM(AS12:AU14*$BI$11:$BK$13)</f>
+        <v>4.587638601221296</v>
+      </c>
+      <c r="CA13">
+        <f t="array" ref="CA13">SUM(AT12:AV14*$BI$11:$BK$13)</f>
+        <v>5.3496280159835328</v>
+      </c>
+      <c r="CB13">
+        <f t="array" ref="CB13">SUM(AU12:AW14*$BI$11:$BK$13)</f>
+        <v>7.3442900448200055</v>
+      </c>
+      <c r="CC13">
+        <f t="array" ref="CC13">SUM(AV12:AX14*$BI$11:$BK$13)</f>
+        <v>11.119087584427163</v>
+      </c>
+      <c r="CD13">
+        <f t="array" ref="CD13">SUM(AW12:AY14*$BI$11:$BK$13)</f>
+        <v>15.452988022807659</v>
+      </c>
+      <c r="CE13">
+        <f t="array" ref="CE13">SUM(AX12:AZ14*$BI$11:$BK$13)</f>
+        <v>17.784286836320913</v>
+      </c>
+      <c r="CF13">
+        <f t="array" ref="CF13">SUM(AY12:BA14*$BI$11:$BK$13)</f>
+        <v>16.301605585638022</v>
+      </c>
+      <c r="CG13">
+        <f t="array" ref="CG13">SUM(AZ12:BB14*$BI$11:$BK$13)</f>
+        <v>11.482361094331083</v>
+      </c>
+      <c r="CH13">
+        <f t="array" ref="CH13">SUM(BA12:BC14*$BI$11:$BK$13)</f>
+        <v>5.470569201522764</v>
+      </c>
+      <c r="CI13">
+        <f t="array" ref="CI13">SUM(BB12:BD14*$BI$11:$BK$13)</f>
+        <v>1.9469698077303539</v>
+      </c>
+      <c r="CJ13">
+        <f t="array" ref="CJ13">SUM(BC12:BE14*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.32941177487373302</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0.91764712333679099</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <f t="array" ref="AH14">SUM(A13:C15*$AD$11:$AF$13)</f>
+        <v>0.1401274288795685</v>
+      </c>
+      <c r="AI14">
+        <f t="array" ref="AI14">SUM(B13:D15*$AD$11:$AF$13)</f>
+        <v>0.34376782465932426</v>
+      </c>
+      <c r="AJ14">
+        <f t="array" ref="AJ14">SUM(C13:E15*$AD$11:$AF$13)</f>
+        <v>0.2831148728650148</v>
+      </c>
+      <c r="AK14">
+        <f t="array" ref="AK14">SUM(D13:F15*$AD$11:$AF$13)</f>
+        <v>0.32892343428045617</v>
+      </c>
+      <c r="AL14">
+        <f t="array" ref="AL14">SUM(E13:G15*$AD$11:$AF$13)</f>
+        <v>4.990169530115094E-2</v>
+      </c>
+      <c r="AM14">
+        <f t="array" ref="AM14">SUM(F13:H15*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <f t="array" ref="AN14">SUM(G13:I15*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <f t="array" ref="AO14">SUM(H13:J15*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <f t="array" ref="AP14">SUM(I13:K15*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <f t="array" ref="AQ14">SUM(J13:L15*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <f t="array" ref="AR14">SUM(K13:M15*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <f t="array" ref="AS14">SUM(L13:N15*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <f t="array" ref="AT14">SUM(M13:O15*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <f t="array" ref="AU14">SUM(N13:P15*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <f t="array" ref="AV14">SUM(O13:Q15*$AD$11:$AF$13)</f>
+        <v>0.12537717468298137</v>
+      </c>
+      <c r="AW14">
+        <f t="array" ref="AW14">SUM(P13:R15*$AD$11:$AF$13)</f>
+        <v>1.2894177926474639</v>
+      </c>
+      <c r="AX14">
+        <f t="array" ref="AX14">SUM(Q13:S15*$AD$11:$AF$13)</f>
+        <v>2.8344668123761649</v>
+      </c>
+      <c r="AY14">
+        <f t="array" ref="AY14">SUM(R13:T15*$AD$11:$AF$13)</f>
+        <v>4.2496286414805233</v>
+      </c>
+      <c r="AZ14">
+        <f t="array" ref="AZ14">SUM(S13:U15*$AD$11:$AF$13)</f>
+        <v>4.6609085819157254</v>
+      </c>
+      <c r="BA14">
+        <f t="array" ref="BA14">SUM(T13:V15*$AD$11:$AF$13)</f>
+        <v>2.7553168345958508</v>
+      </c>
+      <c r="BB14">
+        <f t="array" ref="BB14">SUM(U13:W15*$AD$11:$AF$13)</f>
+        <v>1.6494895278182282</v>
+      </c>
+      <c r="BC14">
+        <f t="array" ref="BC14">SUM(V13:X15*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <f t="array" ref="BD14">SUM(W13:Y15*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <f t="array" ref="BE14">SUM(X13:Z15*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <f t="array" ref="BF14">SUM(Y13:AA15*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <f t="array" ref="BG14">SUM(Z13:AB15*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <f t="array" ref="BO14">SUM(AH13:AJ15*$BI$11:$BK$13)</f>
+        <v>2.6812659507345855</v>
+      </c>
+      <c r="BP14">
+        <f t="array" ref="BP14">SUM(AI13:AK15*$BI$11:$BK$13)</f>
+        <v>3.4391845394591645</v>
+      </c>
+      <c r="BQ14">
+        <f t="array" ref="BQ14">SUM(AJ13:AL15*$BI$11:$BK$13)</f>
+        <v>3.275348942667172</v>
+      </c>
+      <c r="BR14">
+        <f t="array" ref="BR14">SUM(AK13:AM15*$BI$11:$BK$13)</f>
+        <v>2.6266924342365279</v>
+      </c>
+      <c r="BS14">
+        <f t="array" ref="BS14">SUM(AL13:AN15*$BI$11:$BK$13)</f>
+        <v>2.4167237077090902</v>
+      </c>
+      <c r="BT14">
+        <f t="array" ref="BT14">SUM(AM13:AO15*$BI$11:$BK$13)</f>
+        <v>2.308242847178807</v>
+      </c>
+      <c r="BU14">
+        <f t="array" ref="BU14">SUM(AN13:AP15*$BI$11:$BK$13)</f>
+        <v>1.948972370322166</v>
+      </c>
+      <c r="BV14">
+        <f t="array" ref="BV14">SUM(AO13:AQ15*$BI$11:$BK$13)</f>
+        <v>1.4731634142998</v>
+      </c>
+      <c r="BW14">
+        <f t="array" ref="BW14">SUM(AP13:AR15*$BI$11:$BK$13)</f>
+        <v>1.0377468634148221</v>
+      </c>
+      <c r="BX14">
+        <f t="array" ref="BX14">SUM(AQ13:AS15*$BI$11:$BK$13)</f>
+        <v>0.74141954355691397</v>
+      </c>
+      <c r="BY14">
+        <f t="array" ref="BY14">SUM(AR13:AT15*$BI$11:$BK$13)</f>
+        <v>0.73540701675663955</v>
+      </c>
+      <c r="BZ14">
+        <f t="array" ref="BZ14">SUM(AS13:AU15*$BI$11:$BK$13)</f>
+        <v>0.83688064032880438</v>
+      </c>
+      <c r="CA14">
+        <f t="array" ref="CA14">SUM(AT13:AV15*$BI$11:$BK$13)</f>
+        <v>1.3822626710864148</v>
+      </c>
+      <c r="CB14">
+        <f t="array" ref="CB14">SUM(AU13:AW15*$BI$11:$BK$13)</f>
+        <v>3.3079823872325056</v>
+      </c>
+      <c r="CC14">
+        <f t="array" ref="CC14">SUM(AV13:AX15*$BI$11:$BK$13)</f>
+        <v>7.7424236079720679</v>
+      </c>
+      <c r="CD14">
+        <f t="array" ref="CD14">SUM(AW13:AY15*$BI$11:$BK$13)</f>
+        <v>13.54083083953593</v>
+      </c>
+      <c r="CE14">
+        <f t="array" ref="CE14">SUM(AX13:AZ15*$BI$11:$BK$13)</f>
+        <v>18.416096974719139</v>
+      </c>
+      <c r="CF14">
+        <f t="array" ref="CF14">SUM(AY13:BA15*$BI$11:$BK$13)</f>
+        <v>18.44914758641638</v>
+      </c>
+      <c r="CG14">
+        <f t="array" ref="CG14">SUM(AZ13:BB15*$BI$11:$BK$13)</f>
+        <v>14.315480834581031</v>
+      </c>
+      <c r="CH14">
+        <f t="array" ref="CH14">SUM(BA13:BC15*$BI$11:$BK$13)</f>
+        <v>7.4022158974113239</v>
+      </c>
+      <c r="CI14">
+        <f t="array" ref="CI14">SUM(BB13:BD15*$BI$11:$BK$13)</f>
+        <v>2.7801783790169914</v>
+      </c>
+      <c r="CJ14">
+        <f t="array" ref="CJ14">SUM(BC13:BE15*$BI$11:$BK$13)</f>
+        <v>0.11933725317718619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.32941177487373302</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0.91764712333679099</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="array" ref="AH15">SUM(A14:C16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f t="array" ref="AI15">SUM(B14:D16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <f t="array" ref="AJ15">SUM(C14:E16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <f t="array" ref="AK15">SUM(D14:F16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <f t="array" ref="AL15">SUM(E14:G16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <f t="array" ref="AM15">SUM(F14:H16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <f t="array" ref="AN15">SUM(G14:I16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <f t="array" ref="AO15">SUM(H14:J16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <f t="array" ref="AP15">SUM(I14:K16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <f t="array" ref="AQ15">SUM(J14:L16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <f t="array" ref="AR15">SUM(K14:M16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <f t="array" ref="AS15">SUM(L14:N16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <f t="array" ref="AT15">SUM(M14:O16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <f t="array" ref="AU15">SUM(N14:P16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <f t="array" ref="AV15">SUM(O14:Q16*$AD$11:$AF$13)</f>
+        <v>0.35457968479930746</v>
+      </c>
+      <c r="AW15">
+        <f t="array" ref="AW15">SUM(P14:R16*$AD$11:$AF$13)</f>
+        <v>1.1568155847110604</v>
+      </c>
+      <c r="AX15">
+        <f t="array" ref="AX15">SUM(Q14:S16*$AD$11:$AF$13)</f>
+        <v>2.9080336347627185</v>
+      </c>
+      <c r="AY15">
+        <f t="array" ref="AY15">SUM(R14:T16*$AD$11:$AF$13)</f>
+        <v>3.9272844696531122</v>
+      </c>
+      <c r="AZ15">
+        <f t="array" ref="AZ15">SUM(S14:U16*$AD$11:$AF$13)</f>
+        <v>5.1298345182896092</v>
+      </c>
+      <c r="BA15">
+        <f t="array" ref="BA15">SUM(T14:V16*$AD$11:$AF$13)</f>
+        <v>3.0670664625802884</v>
+      </c>
+      <c r="BB15">
+        <f t="array" ref="BB15">SUM(U14:W16*$AD$11:$AF$13)</f>
+        <v>2.1929919697657057</v>
+      </c>
+      <c r="BC15">
+        <f t="array" ref="BC15">SUM(V14:X16*$AD$11:$AF$13)</f>
+        <v>0.12074718930767936</v>
+      </c>
+      <c r="BD15">
+        <f t="array" ref="BD15">SUM(W14:Y16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <f t="array" ref="BE15">SUM(X14:Z16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <f t="array" ref="BF15">SUM(Y14:AA16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <f t="array" ref="BG15">SUM(Z14:AB16*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <f t="array" ref="BO15">SUM(AH14:AJ16*$BI$11:$BK$13)</f>
+        <v>0.45205232062116329</v>
+      </c>
+      <c r="BP15">
+        <f t="array" ref="BP15">SUM(AI14:AK16*$BI$11:$BK$13)</f>
+        <v>0.4162099118284881</v>
+      </c>
+      <c r="BQ15">
+        <f t="array" ref="BQ15">SUM(AJ14:AL16*$BI$11:$BK$13)</f>
+        <v>0.34476225947777339</v>
+      </c>
+      <c r="BR15">
+        <f t="array" ref="BR15">SUM(AK14:AM16*$BI$11:$BK$13)</f>
+        <v>5.4937913599889039E-2</v>
+      </c>
+      <c r="BS15">
+        <f t="array" ref="BS15">SUM(AL14:AN16*$BI$11:$BK$13)</f>
+        <v>1.0020878488627989E-3</v>
+      </c>
+      <c r="BT15">
+        <f t="array" ref="BT15">SUM(AM14:AO16*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <f t="array" ref="BU15">SUM(AN14:AP16*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <f t="array" ref="BV15">SUM(AO14:AQ16*$BI$11:$BK$13)</f>
+        <v>9.0905395426671004E-3</v>
+      </c>
+      <c r="BW15">
+        <f t="array" ref="BW15">SUM(AP14:AR16*$BI$11:$BK$13)</f>
+        <v>8.6603866393753476E-2</v>
+      </c>
+      <c r="BX15">
+        <f t="array" ref="BX15">SUM(AQ14:AS16*$BI$11:$BK$13)</f>
+        <v>0.39374711618722341</v>
+      </c>
+      <c r="BY15">
+        <f t="array" ref="BY15">SUM(AR14:AT16*$BI$11:$BK$13)</f>
+        <v>1.0348527203378084</v>
+      </c>
+      <c r="BZ15">
+        <f t="array" ref="BZ15">SUM(AS14:AU16*$BI$11:$BK$13)</f>
+        <v>1.7802380062714991</v>
+      </c>
+      <c r="CA15">
+        <f t="array" ref="CA15">SUM(AT14:AV16*$BI$11:$BK$13)</f>
+        <v>2.531616519023796</v>
+      </c>
+      <c r="CB15">
+        <f t="array" ref="CB15">SUM(AU14:AW16*$BI$11:$BK$13)</f>
+        <v>4.3152142446995079</v>
+      </c>
+      <c r="CC15">
+        <f t="array" ref="CC15">SUM(AV14:AX16*$BI$11:$BK$13)</f>
+        <v>8.4740827087886998</v>
+      </c>
+      <c r="CD15">
+        <f t="array" ref="CD15">SUM(AW14:AY16*$BI$11:$BK$13)</f>
+        <v>14.047895621607559</v>
+      </c>
+      <c r="CE15">
+        <f t="array" ref="CE15">SUM(AX14:AZ16*$BI$11:$BK$13)</f>
+        <v>19.383814551273765</v>
+      </c>
+      <c r="CF15">
+        <f t="array" ref="CF15">SUM(AY14:BA16*$BI$11:$BK$13)</f>
+        <v>20.256303571545402</v>
+      </c>
+      <c r="CG15">
+        <f t="array" ref="CG15">SUM(AZ14:BB16*$BI$11:$BK$13)</f>
+        <v>16.134845366055469</v>
+      </c>
+      <c r="CH15">
+        <f t="array" ref="CH15">SUM(BA14:BC16*$BI$11:$BK$13)</f>
+        <v>9.6775763889751811</v>
+      </c>
+      <c r="CI15">
+        <f t="array" ref="CI15">SUM(BB14:BD16*$BI$11:$BK$13)</f>
+        <v>3.6606215654106742</v>
+      </c>
+      <c r="CJ15">
+        <f t="array" ref="CJ15">SUM(BC14:BE16*$BI$11:$BK$13)</f>
+        <v>0.74163282668226427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.41568630933761502</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.61568629741668701</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0.95294123888015703</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0.20000001788139299</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <f t="array" ref="AH16">SUM(A15:C17*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <f t="array" ref="AI16">SUM(B15:D17*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <f t="array" ref="AJ16">SUM(C15:E17*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <f t="array" ref="AK16">SUM(D15:F17*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <f t="array" ref="AL16">SUM(E15:G17*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <f t="array" ref="AM16">SUM(F15:H17*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <f t="array" ref="AN16">SUM(G15:I17*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <f t="array" ref="AO16">SUM(H15:J17*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <f t="array" ref="AP16">SUM(I15:K17*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <f t="array" ref="AQ16">SUM(J15:L17*$AD$11:$AF$13)</f>
+        <v>8.3627284870251728E-2</v>
+      </c>
+      <c r="AR16">
+        <f t="array" ref="AR16">SUM(K15:M17*$AD$11:$AF$13)</f>
+        <v>0.42343533386559074</v>
+      </c>
+      <c r="AS16">
+        <f t="array" ref="AS16">SUM(L15:N17*$AD$11:$AF$13)</f>
+        <v>0.97190977812306212</v>
+      </c>
+      <c r="AT16">
+        <f t="array" ref="AT16">SUM(M15:O17*$AD$11:$AF$13)</f>
+        <v>1.3320730726172409</v>
+      </c>
+      <c r="AU16">
+        <f t="array" ref="AU16">SUM(N15:P17*$AD$11:$AF$13)</f>
+        <v>1.5948757755822975</v>
+      </c>
+      <c r="AV16">
+        <f t="array" ref="AV16">SUM(O15:Q17*$AD$11:$AF$13)</f>
+        <v>1.9131517099453024</v>
+      </c>
+      <c r="AW16">
+        <f t="array" ref="AW16">SUM(P15:R17*$AD$11:$AF$13)</f>
+        <v>2.3909957222792664</v>
+      </c>
+      <c r="AX16">
+        <f t="array" ref="AX16">SUM(Q15:S17*$AD$11:$AF$13)</f>
+        <v>3.6903601705973852</v>
+      </c>
+      <c r="AY16">
+        <f t="array" ref="AY16">SUM(R15:T17*$AD$11:$AF$13)</f>
+        <v>4.3609774308559199</v>
+      </c>
+      <c r="AZ16">
+        <f t="array" ref="AZ16">SUM(S15:U17*$AD$11:$AF$13)</f>
+        <v>5.1865535148041424</v>
+      </c>
+      <c r="BA16">
+        <f t="array" ref="BA16">SUM(T15:V17*$AD$11:$AF$13)</f>
+        <v>3.8279719804618195</v>
+      </c>
+      <c r="BB16">
+        <f t="array" ref="BB16">SUM(U15:W17*$AD$11:$AF$13)</f>
+        <v>2.4960817322060875</v>
+      </c>
+      <c r="BC16">
+        <f t="array" ref="BC16">SUM(V15:X17*$AD$11:$AF$13)</f>
+        <v>0.71076813731220423</v>
+      </c>
+      <c r="BD16">
+        <f t="array" ref="BD16">SUM(W15:Y17*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <f t="array" ref="BE16">SUM(X15:Z17*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <f t="array" ref="BF16">SUM(Y15:AA17*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <f t="array" ref="BG16">SUM(Z15:AB17*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <f t="array" ref="BO16">SUM(AH15:AJ17*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <f t="array" ref="BP16">SUM(AI15:AK17*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <f t="array" ref="BQ16">SUM(AJ15:AL17*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <f t="array" ref="BR16">SUM(AK15:AM17*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BS16">
+        <f t="array" ref="BS16">SUM(AL15:AN17*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <f t="array" ref="BT16">SUM(AM15:AO17*$BI$11:$BK$13)</f>
+        <v>2.472626656123935E-2</v>
+      </c>
+      <c r="BU16">
+        <f t="array" ref="BU16">SUM(AN15:AP17*$BI$11:$BK$13)</f>
+        <v>0.16311454933557407</v>
+      </c>
+      <c r="BV16">
+        <f t="array" ref="BV16">SUM(AO15:AQ17*$BI$11:$BK$13)</f>
+        <v>0.62324145841569267</v>
+      </c>
+      <c r="BW16">
+        <f t="array" ref="BW16">SUM(AP15:AR17*$BI$11:$BK$13)</f>
+        <v>1.4874258120056538</v>
+      </c>
+      <c r="BX16">
+        <f t="array" ref="BX16">SUM(AQ15:AS17*$BI$11:$BK$13)</f>
+        <v>3.0465802540822065</v>
+      </c>
+      <c r="BY16">
+        <f t="array" ref="BY16">SUM(AR15:AT17*$BI$11:$BK$13)</f>
+        <v>4.7189774922319989</v>
+      </c>
+      <c r="BZ16">
+        <f t="array" ref="BZ16">SUM(AS15:AU17*$BI$11:$BK$13)</f>
+        <v>6.1589732489979827</v>
+      </c>
+      <c r="CA16">
+        <f t="array" ref="CA16">SUM(AT15:AV17*$BI$11:$BK$13)</f>
+        <v>7.3650841143296528</v>
+      </c>
+      <c r="CB16">
+        <f t="array" ref="CB16">SUM(AU15:AW17*$BI$11:$BK$13)</f>
+        <v>9.2003547205872245</v>
+      </c>
+      <c r="CC16">
+        <f t="array" ref="CC16">SUM(AV15:AX17*$BI$11:$BK$13)</f>
+        <v>12.574826066026738</v>
+      </c>
+      <c r="CD16">
+        <f t="array" ref="CD16">SUM(AW15:AY17*$BI$11:$BK$13)</f>
+        <v>17.09989861637148</v>
+      </c>
+      <c r="CE16">
+        <f t="array" ref="CE16">SUM(AX15:AZ17*$BI$11:$BK$13)</f>
+        <v>21.104305610576176</v>
+      </c>
+      <c r="CF16">
+        <f t="array" ref="CF16">SUM(AY15:BA17*$BI$11:$BK$13)</f>
+        <v>22.016329288868437</v>
+      </c>
+      <c r="CG16">
+        <f t="array" ref="CG16">SUM(AZ15:BB17*$BI$11:$BK$13)</f>
+        <v>17.702323530838218</v>
+      </c>
+      <c r="CH16">
+        <f t="array" ref="CH16">SUM(BA15:BC17*$BI$11:$BK$13)</f>
+        <v>11.426621223285993</v>
+      </c>
+      <c r="CI16">
+        <f t="array" ref="CI16">SUM(BB15:BD17*$BI$11:$BK$13)</f>
+        <v>4.6657931985686796</v>
+      </c>
+      <c r="CJ16">
+        <f t="array" ref="CJ16">SUM(BC15:BE17*$BI$11:$BK$13)</f>
+        <v>1.4216881098587182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>9.8039224743842995E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.458823561668395</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.89411771297454801</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.89411771297454801</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.89411771297454801</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.99215692281723</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0.94117653369903498</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <f t="array" ref="AH17">SUM(A16:C18*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <f t="array" ref="AI17">SUM(B16:D18*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <f t="array" ref="AJ17">SUM(C16:E18*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <f t="array" ref="AK17">SUM(D16:F18*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <f t="array" ref="AL17">SUM(E16:G18*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <f t="array" ref="AM17">SUM(F16:H18*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <f t="array" ref="AN17">SUM(G16:I18*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <f t="array" ref="AO17">SUM(H16:J18*$AD$11:$AF$13)</f>
+        <v>0.22746620569540668</v>
+      </c>
+      <c r="AP17">
+        <f t="array" ref="AP17">SUM(I16:K18*$AD$11:$AF$13)</f>
+        <v>0.48526810895356998</v>
+      </c>
+      <c r="AQ17">
+        <f t="array" ref="AQ17">SUM(J16:L18*$AD$11:$AF$13)</f>
+        <v>1.1048619362336183</v>
+      </c>
+      <c r="AR17">
+        <f t="array" ref="AR17">SUM(K16:M18*$AD$11:$AF$13)</f>
+        <v>1.6771872528343355</v>
+      </c>
+      <c r="AS17">
+        <f t="array" ref="AS17">SUM(L16:N18*$AD$11:$AF$13)</f>
+        <v>2.2926812418193983</v>
+      </c>
+      <c r="AT17">
+        <f t="array" ref="AT17">SUM(M16:O18*$AD$11:$AF$13)</f>
+        <v>2.6510415774185496</v>
+      </c>
+      <c r="AU17">
+        <f t="array" ref="AU17">SUM(N16:P18*$AD$11:$AF$13)</f>
+        <v>2.9612889300971874</v>
+      </c>
+      <c r="AV17">
+        <f t="array" ref="AV17">SUM(O16:Q18*$AD$11:$AF$13)</f>
+        <v>3.407512380033364</v>
+      </c>
+      <c r="AW17">
+        <f t="array" ref="AW17">SUM(P16:R18*$AD$11:$AF$13)</f>
+        <v>3.7179081011686317</v>
+      </c>
+      <c r="AX17">
+        <f t="array" ref="AX17">SUM(Q16:S18*$AD$11:$AF$13)</f>
+        <v>4.6081012470105254</v>
+      </c>
+      <c r="AY17">
+        <f t="array" ref="AY17">SUM(R16:T18*$AD$11:$AF$13)</f>
+        <v>4.912311692453212</v>
+      </c>
+      <c r="AZ17">
+        <f t="array" ref="AZ17">SUM(S16:U18*$AD$11:$AF$13)</f>
+        <v>5.2440919161250719</v>
+      </c>
+      <c r="BA17">
+        <f t="array" ref="BA17">SUM(T16:V18*$AD$11:$AF$13)</f>
+        <v>4.1184574565115382</v>
+      </c>
+      <c r="BB17">
+        <f t="array" ref="BB17">SUM(U16:W18*$AD$11:$AF$13)</f>
+        <v>2.5265274243726288</v>
+      </c>
+      <c r="BC17">
+        <f t="array" ref="BC17">SUM(V16:X18*$AD$11:$AF$13)</f>
+        <v>1.2027713121948937</v>
+      </c>
+      <c r="BD17">
+        <f t="array" ref="BD17">SUM(W16:Y18*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <f t="array" ref="BE17">SUM(X16:Z18*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <f t="array" ref="BF17">SUM(Y16:AA18*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <f t="array" ref="BG17">SUM(Z16:AB18*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <f t="array" ref="BO17">SUM(AH16:AJ18*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <f t="array" ref="BP17">SUM(AI16:AK18*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <f t="array" ref="BQ17">SUM(AJ16:AL18*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <f t="array" ref="BR17">SUM(AK16:AM18*$BI$11:$BK$13)</f>
+        <v>1.3453997859937169E-2</v>
+      </c>
+      <c r="BS17">
+        <f t="array" ref="BS17">SUM(AL16:AN18*$BI$11:$BK$13)</f>
+        <v>0.13320623832137765</v>
+      </c>
+      <c r="BT17">
+        <f t="array" ref="BT17">SUM(AM16:AO18*$BI$11:$BK$13)</f>
+        <v>0.70943527535865969</v>
+      </c>
+      <c r="BU17">
+        <f t="array" ref="BU17">SUM(AN16:AP18*$BI$11:$BK$13)</f>
+        <v>1.9589279128466979</v>
+      </c>
+      <c r="BV17">
+        <f t="array" ref="BV17">SUM(AO16:AQ18*$BI$11:$BK$13)</f>
+        <v>3.6004271015887994</v>
+      </c>
+      <c r="BW17">
+        <f t="array" ref="BW17">SUM(AP16:AR18*$BI$11:$BK$13)</f>
+        <v>5.6882217344748165</v>
+      </c>
+      <c r="BX17">
+        <f t="array" ref="BX17">SUM(AQ16:AS18*$BI$11:$BK$13)</f>
+        <v>8.3005088461322902</v>
+      </c>
+      <c r="BY17">
+        <f t="array" ref="BY17">SUM(AR16:AT18*$BI$11:$BK$13)</f>
+        <v>10.921412125141861</v>
+      </c>
+      <c r="BZ17">
+        <f t="array" ref="BZ17">SUM(AS16:AU18*$BI$11:$BK$13)</f>
+        <v>13.104202027622044</v>
+      </c>
+      <c r="CA17">
+        <f t="array" ref="CA17">SUM(AT16:AV18*$BI$11:$BK$13)</f>
+        <v>14.695507755478324</v>
+      </c>
+      <c r="CB17">
+        <f t="array" ref="CB17">SUM(AU16:AW18*$BI$11:$BK$13)</f>
+        <v>15.973119680562871</v>
+      </c>
+      <c r="CC17">
+        <f t="array" ref="CC17">SUM(AV16:AX18*$BI$11:$BK$13)</f>
+        <v>17.415285533616252</v>
+      </c>
+      <c r="CD17">
+        <f t="array" ref="CD17">SUM(AW16:AY18*$BI$11:$BK$13)</f>
+        <v>19.990749574675331</v>
+      </c>
+      <c r="CE17">
+        <f t="array" ref="CE17">SUM(AX16:AZ18*$BI$11:$BK$13)</f>
+        <v>22.185717561051003</v>
+      </c>
+      <c r="CF17">
+        <f t="array" ref="CF17">SUM(AY16:BA18*$BI$11:$BK$13)</f>
+        <v>22.672627400118948</v>
+      </c>
+      <c r="CG17">
+        <f t="array" ref="CG17">SUM(AZ16:BB18*$BI$11:$BK$13)</f>
+        <v>19.018844572426392</v>
+      </c>
+      <c r="CH17">
+        <f t="array" ref="CH17">SUM(BA16:BC18*$BI$11:$BK$13)</f>
+        <v>12.892804415394171</v>
+      </c>
+      <c r="CI17">
+        <f t="array" ref="CI17">SUM(BB16:BD18*$BI$11:$BK$13)</f>
+        <v>6.064458795115665</v>
+      </c>
+      <c r="CJ17">
+        <f t="array" ref="CJ17">SUM(BC16:BE18*$BI$11:$BK$13)</f>
+        <v>1.9809270306026066</v>
+      </c>
+    </row>
+    <row r="18" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.266666680574417</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.46666669845580999</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.86274516582489003</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0.55686277151107699</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <f t="array" ref="AH18">SUM(A17:C19*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <f t="array" ref="AI18">SUM(B17:D19*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <f t="array" ref="AJ18">SUM(C17:E19*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <f t="array" ref="AK18">SUM(D17:F19*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <f t="array" ref="AL18">SUM(E17:G19*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <f t="array" ref="AM18">SUM(F17:H19*$AD$11:$AF$13)</f>
+        <v>0.12376837550685359</v>
+      </c>
+      <c r="AN18">
+        <f t="array" ref="AN18">SUM(G17:I19*$AD$11:$AF$13)</f>
+        <v>0.67298032524520168</v>
+      </c>
+      <c r="AO18">
+        <f t="array" ref="AO18">SUM(H17:J19*$AD$11:$AF$13)</f>
+        <v>1.3242444795656081</v>
+      </c>
+      <c r="AP18">
+        <f t="array" ref="AP18">SUM(I17:K19*$AD$11:$AF$13)</f>
+        <v>1.8929563172530082</v>
+      </c>
+      <c r="AQ18">
+        <f t="array" ref="AQ18">SUM(J17:L19*$AD$11:$AF$13)</f>
+        <v>2.5658507805130037</v>
+      </c>
+      <c r="AR18">
+        <f t="array" ref="AR18">SUM(K17:M19*$AD$11:$AF$13)</f>
+        <v>3.1713672575516987</v>
+      </c>
+      <c r="AS18">
+        <f t="array" ref="AS18">SUM(L17:N19*$AD$11:$AF$13)</f>
+        <v>3.9617992692487878</v>
+      </c>
+      <c r="AT18">
+        <f t="array" ref="AT18">SUM(M17:O19*$AD$11:$AF$13)</f>
+        <v>4.4342552442111254</v>
+      </c>
+      <c r="AU18">
+        <f t="array" ref="AU18">SUM(N17:P19*$AD$11:$AF$13)</f>
+        <v>4.765143048668917</v>
+      </c>
+      <c r="AV18">
+        <f t="array" ref="AV18">SUM(O17:Q19*$AD$11:$AF$13)</f>
+        <v>4.3788760979123822</v>
+      </c>
+      <c r="AW18">
+        <f t="array" ref="AW18">SUM(P17:R19*$AD$11:$AF$13)</f>
+        <v>4.218384131154945</v>
+      </c>
+      <c r="AX18">
+        <f t="array" ref="AX18">SUM(Q17:S19*$AD$11:$AF$13)</f>
+        <v>4.4880352459390824</v>
+      </c>
+      <c r="AY18">
+        <f t="array" ref="AY18">SUM(R17:T19*$AD$11:$AF$13)</f>
+        <v>4.7942699792956089</v>
+      </c>
+      <c r="AZ18">
+        <f t="array" ref="AZ18">SUM(S17:U19*$AD$11:$AF$13)</f>
+        <v>5.1923190429836676</v>
+      </c>
+      <c r="BA18">
+        <f t="array" ref="BA18">SUM(T17:V19*$AD$11:$AF$13)</f>
+        <v>4.5268210631541397</v>
+      </c>
+      <c r="BB18">
+        <f t="array" ref="BB18">SUM(U17:W19*$AD$11:$AF$13)</f>
+        <v>2.724247494196002</v>
+      </c>
+      <c r="BC18">
+        <f t="array" ref="BC18">SUM(V17:X19*$AD$11:$AF$13)</f>
+        <v>1.5951632995465348</v>
+      </c>
+      <c r="BD18">
+        <f t="array" ref="BD18">SUM(W17:Y19*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <f t="array" ref="BE18">SUM(X17:Z19*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <f t="array" ref="BF18">SUM(Y17:AA19*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <f t="array" ref="BG18">SUM(Z17:AB19*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <f t="array" ref="BO18">SUM(AH17:AJ19*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <f t="array" ref="BP18">SUM(AI17:AK19*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <f t="array" ref="BQ18">SUM(AJ17:AL19*$BI$11:$BK$13)</f>
+        <v>4.1089238014377617E-2</v>
+      </c>
+      <c r="BR18">
+        <f t="array" ref="BR18">SUM(AK17:AM19*$BI$11:$BK$13)</f>
+        <v>0.35115374301684094</v>
+      </c>
+      <c r="BS18">
+        <f t="array" ref="BS18">SUM(AL17:AN19*$BI$11:$BK$13)</f>
+        <v>1.4888991125482327</v>
+      </c>
+      <c r="BT18">
+        <f t="array" ref="BT18">SUM(AM17:AO19*$BI$11:$BK$13)</f>
+        <v>3.5081767381813762</v>
+      </c>
+      <c r="BU18">
+        <f t="array" ref="BU18">SUM(AN17:AP19*$BI$11:$BK$13)</f>
+        <v>6.174660826888549</v>
+      </c>
+      <c r="BV18">
+        <f t="array" ref="BV18">SUM(AO17:AQ19*$BI$11:$BK$13)</f>
+        <v>8.9013856464288263</v>
+      </c>
+      <c r="BW18">
+        <f t="array" ref="BW18">SUM(AP17:AR19*$BI$11:$BK$13)</f>
+        <v>11.760682140863979</v>
+      </c>
+      <c r="BX18">
+        <f t="array" ref="BX18">SUM(AQ17:AS19*$BI$11:$BK$13)</f>
+        <v>14.240112069945608</v>
+      </c>
+      <c r="BY18">
+        <f t="array" ref="BY18">SUM(AR17:AT19*$BI$11:$BK$13)</f>
+        <v>16.200182347361032</v>
+      </c>
+      <c r="BZ18">
+        <f t="array" ref="BZ18">SUM(AS17:AU19*$BI$11:$BK$13)</f>
+        <v>17.283787088815082</v>
+      </c>
+      <c r="CA18">
+        <f t="array" ref="CA18">SUM(AT17:AV19*$BI$11:$BK$13)</f>
+        <v>17.691119207604171</v>
+      </c>
+      <c r="CB18">
+        <f t="array" ref="CB18">SUM(AU17:AW19*$BI$11:$BK$13)</f>
+        <v>17.480561214927242</v>
+      </c>
+      <c r="CC18">
+        <f t="array" ref="CC18">SUM(AV17:AX19*$BI$11:$BK$13)</f>
+        <v>17.672647446919118</v>
+      </c>
+      <c r="CD18">
+        <f t="array" ref="CD18">SUM(AW17:AY19*$BI$11:$BK$13)</f>
+        <v>19.326645969654955</v>
+      </c>
+      <c r="CE18">
+        <f t="array" ref="CE18">SUM(AX17:AZ19*$BI$11:$BK$13)</f>
+        <v>21.308978746610517</v>
+      </c>
+      <c r="CF18">
+        <f t="array" ref="CF18">SUM(AY17:BA19*$BI$11:$BK$13)</f>
+        <v>22.119987121181452</v>
+      </c>
+      <c r="CG18">
+        <f t="array" ref="CG18">SUM(AZ17:BB19*$BI$11:$BK$13)</f>
+        <v>19.206077053965874</v>
+      </c>
+      <c r="CH18">
+        <f t="array" ref="CH18">SUM(BA17:BC19*$BI$11:$BK$13)</f>
+        <v>12.770917398758852</v>
+      </c>
+      <c r="CI18">
+        <f t="array" ref="CI18">SUM(BB17:BD19*$BI$11:$BK$13)</f>
+        <v>6.4044665214611953</v>
+      </c>
+      <c r="CJ18">
+        <f t="array" ref="CJ18">SUM(BC17:BE19*$BI$11:$BK$13)</f>
+        <v>1.4993938487904548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.14509804546832999</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.73333334922790505</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.99215692281723</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.87450987100601096</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.80784320831298795</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.80784320831298795</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.29411765933036799</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0.266666680574417</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0.84313732385635298</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0.458823561668395</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <f t="array" ref="AH19">SUM(A18:C20*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <f t="array" ref="AI19">SUM(B18:D20*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <f t="array" ref="AJ19">SUM(C18:E20*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <f t="array" ref="AK19">SUM(D18:F20*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <f t="array" ref="AL19">SUM(E18:G20*$AD$11:$AF$13)</f>
+        <v>0.37799532100399208</v>
+      </c>
+      <c r="AM19">
+        <f t="array" ref="AM19">SUM(F18:H20*$AD$11:$AF$13)</f>
+        <v>0.9593902799539431</v>
+      </c>
+      <c r="AN19">
+        <f t="array" ref="AN19">SUM(G18:I20*$AD$11:$AF$13)</f>
+        <v>1.8188959883885232</v>
+      </c>
+      <c r="AO19">
+        <f t="array" ref="AO19">SUM(H18:J20*$AD$11:$AF$13)</f>
+        <v>2.6028756545398686</v>
+      </c>
+      <c r="AP19">
+        <f t="array" ref="AP19">SUM(I18:K20*$AD$11:$AF$13)</f>
+        <v>3.3160911174941914</v>
+      </c>
+      <c r="AQ19">
+        <f t="array" ref="AQ19">SUM(J18:L20*$AD$11:$AF$13)</f>
+        <v>3.7674668038800139</v>
+      </c>
+      <c r="AR19">
+        <f t="array" ref="AR19">SUM(K18:M20*$AD$11:$AF$13)</f>
+        <v>3.9352975377077546</v>
+      </c>
+      <c r="AS19">
+        <f t="array" ref="AS19">SUM(L18:N20*$AD$11:$AF$13)</f>
+        <v>3.7988750457366667</v>
+      </c>
+      <c r="AT19">
+        <f t="array" ref="AT19">SUM(M18:O20*$AD$11:$AF$13)</f>
+        <v>3.6463344733845773</v>
+      </c>
+      <c r="AU19">
+        <f t="array" ref="AU19">SUM(N18:P20*$AD$11:$AF$13)</f>
+        <v>3.3794411677591865</v>
+      </c>
+      <c r="AV19">
+        <f t="array" ref="AV19">SUM(O18:Q20*$AD$11:$AF$13)</f>
+        <v>2.9685401288171613</v>
+      </c>
+      <c r="AW19">
+        <f t="array" ref="AW19">SUM(P18:R20*$AD$11:$AF$13)</f>
+        <v>2.92859080614816</v>
+      </c>
+      <c r="AX19">
+        <f t="array" ref="AX19">SUM(Q18:S20*$AD$11:$AF$13)</f>
+        <v>3.5555636087426619</v>
+      </c>
+      <c r="AY19">
+        <f t="array" ref="AY19">SUM(R18:T20*$AD$11:$AF$13)</f>
+        <v>4.086883915809695</v>
+      </c>
+      <c r="AZ19">
+        <f t="array" ref="AZ19">SUM(S18:U20*$AD$11:$AF$13)</f>
+        <v>5.0043131758538246</v>
+      </c>
+      <c r="BA19">
+        <f t="array" ref="BA19">SUM(T18:V20*$AD$11:$AF$13)</f>
+        <v>3.8392001610035025</v>
+      </c>
+      <c r="BB19">
+        <f t="array" ref="BB19">SUM(U18:W20*$AD$11:$AF$13)</f>
+        <v>2.4846043309667389</v>
+      </c>
+      <c r="BC19">
+        <f t="array" ref="BC19">SUM(V18:X20*$AD$11:$AF$13)</f>
+        <v>0.96916877696994874</v>
+      </c>
+      <c r="BD19">
+        <f t="array" ref="BD19">SUM(W18:Y20*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <f t="array" ref="BE19">SUM(X18:Z20*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <f t="array" ref="BF19">SUM(Y18:AA20*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <f t="array" ref="BG19">SUM(Z18:AB20*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <f t="array" ref="BO19">SUM(AH18:AJ20*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <f t="array" ref="BP19">SUM(AI18:AK20*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <f t="array" ref="BQ19">SUM(AJ18:AL20*$BI$11:$BK$13)</f>
+        <v>0.28247021060358524</v>
+      </c>
+      <c r="BR19">
+        <f t="array" ref="BR19">SUM(AK18:AM20*$BI$11:$BK$13)</f>
+        <v>1.4510367681319516</v>
+      </c>
+      <c r="BS19">
+        <f t="array" ref="BS19">SUM(AL18:AN20*$BI$11:$BK$13)</f>
+        <v>4.2382815037581629</v>
+      </c>
+      <c r="BT19">
+        <f t="array" ref="BT19">SUM(AM18:AO20*$BI$11:$BK$13)</f>
+        <v>7.9248237550597356</v>
+      </c>
+      <c r="BU19">
+        <f t="array" ref="BU19">SUM(AN18:AP20*$BI$11:$BK$13)</f>
+        <v>11.646176670997894</v>
+      </c>
+      <c r="BV19">
+        <f t="array" ref="BV19">SUM(AO18:AQ20*$BI$11:$BK$13)</f>
+        <v>14.171364198760415</v>
+      </c>
+      <c r="BW19">
+        <f t="array" ref="BW19">SUM(AP18:AR20*$BI$11:$BK$13)</f>
+        <v>15.751711598245851</v>
+      </c>
+      <c r="BX19">
+        <f t="array" ref="BX19">SUM(AQ18:AS20*$BI$11:$BK$13)</f>
+        <v>16.334387648111651</v>
+      </c>
+      <c r="BY19">
+        <f t="array" ref="BY19">SUM(AR18:AT20*$BI$11:$BK$13)</f>
+        <v>16.605137640217794</v>
+      </c>
+      <c r="BZ19">
+        <f t="array" ref="BZ19">SUM(AS18:AU20*$BI$11:$BK$13)</f>
+        <v>16.193643245563802</v>
+      </c>
+      <c r="CA19">
+        <f t="array" ref="CA19">SUM(AT18:AV20*$BI$11:$BK$13)</f>
+        <v>15.411133569532211</v>
+      </c>
+      <c r="CB19">
+        <f t="array" ref="CB19">SUM(AU18:AW20*$BI$11:$BK$13)</f>
+        <v>13.90459187245723</v>
+      </c>
+      <c r="CC19">
+        <f t="array" ref="CC19">SUM(AV18:AX20*$BI$11:$BK$13)</f>
+        <v>13.499205646500728</v>
+      </c>
+      <c r="CD19">
+        <f t="array" ref="CD19">SUM(AW18:AY20*$BI$11:$BK$13)</f>
+        <v>15.327143239609756</v>
+      </c>
+      <c r="CE19">
+        <f t="array" ref="CE19">SUM(AX18:AZ20*$BI$11:$BK$13)</f>
+        <v>18.645089386016078</v>
+      </c>
+      <c r="CF19">
+        <f t="array" ref="CF19">SUM(AY18:BA20*$BI$11:$BK$13)</f>
+        <v>20.576815842008557</v>
+      </c>
+      <c r="CG19">
+        <f t="array" ref="CG19">SUM(AZ18:BB20*$BI$11:$BK$13)</f>
+        <v>18.520475356885054</v>
+      </c>
+      <c r="CH19">
+        <f t="array" ref="CH19">SUM(BA18:BC20*$BI$11:$BK$13)</f>
+        <v>11.860983612804473</v>
+      </c>
+      <c r="CI19">
+        <f t="array" ref="CI19">SUM(BB18:BD20*$BI$11:$BK$13)</f>
+        <v>5.8275520561679306</v>
+      </c>
+      <c r="CJ19">
+        <f t="array" ref="CJ19">SUM(BC18:BE20*$BI$11:$BK$13)</f>
+        <v>0.90351000493640066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.44313728809356601</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.85882359743118197</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.94901967048644997</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.89019614458084095</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.450980424880981</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.34901961684226901</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.121568635106086</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0.78431379795074396</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0.94509810209274203</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0.16078431904315901</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <f t="array" ref="AH20">SUM(A19:C21*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <f t="array" ref="AI20">SUM(B19:D21*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <f t="array" ref="AJ20">SUM(C19:E21*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <f t="array" ref="AK20">SUM(D19:F21*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <f t="array" ref="AL20">SUM(E19:G21*$AD$11:$AF$13)</f>
+        <v>0.81546473699490962</v>
+      </c>
+      <c r="AM20">
+        <f t="array" ref="AM20">SUM(F19:H21*$AD$11:$AF$13)</f>
+        <v>1.7087028696448021</v>
+      </c>
+      <c r="AN20">
+        <f t="array" ref="AN20">SUM(G19:I21*$AD$11:$AF$13)</f>
+        <v>2.9634472130774787</v>
+      </c>
+      <c r="AO20">
+        <f t="array" ref="AO20">SUM(H19:J21*$AD$11:$AF$13)</f>
+        <v>3.508346900625487</v>
+      </c>
+      <c r="AP20">
+        <f t="array" ref="AP20">SUM(I19:K21*$AD$11:$AF$13)</f>
+        <v>3.6838278017015487</v>
+      </c>
+      <c r="AQ20">
+        <f t="array" ref="AQ20">SUM(J19:L21*$AD$11:$AF$13)</f>
+        <v>3.3045797040866352</v>
+      </c>
+      <c r="AR20">
+        <f t="array" ref="AR20">SUM(K19:M21*$AD$11:$AF$13)</f>
+        <v>3.0412400017415635</v>
+      </c>
+      <c r="AS20">
+        <f t="array" ref="AS20">SUM(L19:N21*$AD$11:$AF$13)</f>
+        <v>2.4806371055528973</v>
+      </c>
+      <c r="AT20">
+        <f t="array" ref="AT20">SUM(M19:O21*$AD$11:$AF$13)</f>
+        <v>2.2320639361473655</v>
+      </c>
+      <c r="AU20">
+        <f t="array" ref="AU20">SUM(N19:P21*$AD$11:$AF$13)</f>
+        <v>1.926654145161256</v>
+      </c>
+      <c r="AV20">
+        <f t="array" ref="AV20">SUM(O19:Q21*$AD$11:$AF$13)</f>
+        <v>1.2916815267913235</v>
+      </c>
+      <c r="AW20">
+        <f t="array" ref="AW20">SUM(P19:R21*$AD$11:$AF$13)</f>
+        <v>1.2837547037115284</v>
+      </c>
+      <c r="AX20">
+        <f t="array" ref="AX20">SUM(Q19:S21*$AD$11:$AF$13)</f>
+        <v>2.4317866066304137</v>
+      </c>
+      <c r="AY20">
+        <f t="array" ref="AY20">SUM(R19:T21*$AD$11:$AF$13)</f>
+        <v>3.2909660026807903</v>
+      </c>
+      <c r="AZ20">
+        <f t="array" ref="AZ20">SUM(S19:U21*$AD$11:$AF$13)</f>
+        <v>4.8338848408695885</v>
+      </c>
+      <c r="BA20">
+        <f t="array" ref="BA20">SUM(T19:V21*$AD$11:$AF$13)</f>
+        <v>3.4302202696861168</v>
+      </c>
+      <c r="BB20">
+        <f t="array" ref="BB20">SUM(U19:W21*$AD$11:$AF$13)</f>
+        <v>2.337702570482064</v>
+      </c>
+      <c r="BC20">
+        <f t="array" ref="BC20">SUM(V19:X21*$AD$11:$AF$13)</f>
+        <v>0.5637111143537954</v>
+      </c>
+      <c r="BD20">
+        <f t="array" ref="BD20">SUM(W19:Y21*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <f t="array" ref="BE20">SUM(X19:Z21*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <f t="array" ref="BF20">SUM(Y19:AA21*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <f t="array" ref="BG20">SUM(Z19:AB21*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <f t="array" ref="BO20">SUM(AH19:AJ21*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <f t="array" ref="BP20">SUM(AI19:AK21*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <f t="array" ref="BQ20">SUM(AJ19:AL21*$BI$11:$BK$13)</f>
+        <v>0.66590603743837518</v>
+      </c>
+      <c r="BR20">
+        <f t="array" ref="BR20">SUM(AK19:AM21*$BI$11:$BK$13)</f>
+        <v>2.9676805391714369</v>
+      </c>
+      <c r="BS20">
+        <f t="array" ref="BS20">SUM(AL19:AN21*$BI$11:$BK$13)</f>
+        <v>7.0343185209233017</v>
+      </c>
+      <c r="BT20">
+        <f t="array" ref="BT20">SUM(AM19:AO21*$BI$11:$BK$13)</f>
+        <v>11.370879051166106</v>
+      </c>
+      <c r="BU20">
+        <f t="array" ref="BU20">SUM(AN19:AP21*$BI$11:$BK$13)</f>
+        <v>14.316425960603471</v>
+      </c>
+      <c r="BV20">
+        <f t="array" ref="BV20">SUM(AO19:AQ21*$BI$11:$BK$13)</f>
+        <v>15.419608969509033</v>
+      </c>
+      <c r="BW20">
+        <f t="array" ref="BW20">SUM(AP19:AR21*$BI$11:$BK$13)</f>
+        <v>14.497237172867308</v>
+      </c>
+      <c r="BX20">
+        <f t="array" ref="BX20">SUM(AQ19:AS21*$BI$11:$BK$13)</f>
+        <v>12.887653527249713</v>
+      </c>
+      <c r="BY20">
+        <f t="array" ref="BY20">SUM(AR19:AT21*$BI$11:$BK$13)</f>
+        <v>11.198868157452633</v>
+      </c>
+      <c r="BZ20">
+        <f t="array" ref="BZ20">SUM(AS19:AU21*$BI$11:$BK$13)</f>
+        <v>9.5587074978563127</v>
+      </c>
+      <c r="CA20">
+        <f t="array" ref="CA20">SUM(AT19:AV21*$BI$11:$BK$13)</f>
+        <v>8.0466780067775812</v>
+      </c>
+      <c r="CB20">
+        <f t="array" ref="CB20">SUM(AU19:AW21*$BI$11:$BK$13)</f>
+        <v>6.705691280146401</v>
+      </c>
+      <c r="CC20">
+        <f t="array" ref="CC20">SUM(AV19:AX21*$BI$11:$BK$13)</f>
+        <v>7.5611134018620678</v>
+      </c>
+      <c r="CD20">
+        <f t="array" ref="CD20">SUM(AW19:AY21*$BI$11:$BK$13)</f>
+        <v>11.200599715407405</v>
+      </c>
+      <c r="CE20">
+        <f t="array" ref="CE20">SUM(AX19:AZ21*$BI$11:$BK$13)</f>
+        <v>16.476277496119739</v>
+      </c>
+      <c r="CF20">
+        <f t="array" ref="CF20">SUM(AY19:BA21*$BI$11:$BK$13)</f>
+        <v>19.308331273736606</v>
+      </c>
+      <c r="CG20">
+        <f t="array" ref="CG20">SUM(AZ19:BB21*$BI$11:$BK$13)</f>
+        <v>16.798355274899041</v>
+      </c>
+      <c r="CH20">
+        <f t="array" ref="CH20">SUM(BA19:BC21*$BI$11:$BK$13)</f>
+        <v>10.222360290862772</v>
+      </c>
+      <c r="CI20">
+        <f t="array" ref="CI20">SUM(BB19:BD21*$BI$11:$BK$13)</f>
+        <v>4.3038866687419359</v>
+      </c>
+      <c r="CJ20">
+        <f t="array" ref="CJ20">SUM(BC19:BE21*$BI$11:$BK$13)</f>
+        <v>0.35784546176433185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.66274511814117398</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.69019609689712502</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.24313727021217299</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.188235312700271</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.90588241815567005</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0.91764712333679099</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <f t="array" ref="AH21">SUM(A20:C22*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <f t="array" ref="AI21">SUM(B20:D22*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <f t="array" ref="AJ21">SUM(C20:E22*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <f t="array" ref="AK21">SUM(D20:F22*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <f t="array" ref="AL21">SUM(E20:G22*$AD$11:$AF$13)</f>
+        <v>0.85101601896541135</v>
+      </c>
+      <c r="AM21">
+        <f t="array" ref="AM21">SUM(F20:H22*$AD$11:$AF$13)</f>
+        <v>1.9623428034574057</v>
+      </c>
+      <c r="AN21">
+        <f t="array" ref="AN21">SUM(G20:I22*$AD$11:$AF$13)</f>
+        <v>2.7199356723462582</v>
+      </c>
+      <c r="AO21">
+        <f t="array" ref="AO21">SUM(H20:J22*$AD$11:$AF$13)</f>
+        <v>3.183303322114567</v>
+      </c>
+      <c r="AP21">
+        <f t="array" ref="AP21">SUM(I20:K22*$AD$11:$AF$13)</f>
+        <v>2.5791501366696798</v>
+      </c>
+      <c r="AQ21">
+        <f t="array" ref="AQ21">SUM(J20:L22*$AD$11:$AF$13)</f>
+        <v>1.7735367827659838</v>
+      </c>
+      <c r="AR21">
+        <f t="array" ref="AR21">SUM(K20:M22*$AD$11:$AF$13)</f>
+        <v>1.3248054528713251</v>
+      </c>
+      <c r="AS21">
+        <f t="array" ref="AS21">SUM(L20:N22*$AD$11:$AF$13)</f>
+        <v>0.652686632342242</v>
+      </c>
+      <c r="AT21">
+        <f t="array" ref="AT21">SUM(M20:O22*$AD$11:$AF$13)</f>
+        <v>0.37539821989913763</v>
+      </c>
+      <c r="AU21">
+        <f t="array" ref="AU21">SUM(N20:P22*$AD$11:$AF$13)</f>
+        <v>0.1189963475285391</v>
+      </c>
+      <c r="AV21">
+        <f t="array" ref="AV21">SUM(O20:Q22*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <f t="array" ref="AW21">SUM(P20:R22*$AD$11:$AF$13)</f>
+        <v>0.38724365944352024</v>
+      </c>
+      <c r="AX21">
+        <f t="array" ref="AX21">SUM(Q20:S22*$AD$11:$AF$13)</f>
+        <v>2.2152035270807975</v>
+      </c>
+      <c r="AY21">
+        <f t="array" ref="AY21">SUM(R20:T22*$AD$11:$AF$13)</f>
+        <v>3.2682804892450878</v>
+      </c>
+      <c r="AZ21">
+        <f t="array" ref="AZ21">SUM(S20:U22*$AD$11:$AF$13)</f>
+        <v>4.6265060005466978</v>
+      </c>
+      <c r="BA21">
+        <f t="array" ref="BA21">SUM(T20:V22*$AD$11:$AF$13)</f>
+        <v>2.9565372252688822</v>
+      </c>
+      <c r="BB21">
+        <f t="array" ref="BB21">SUM(U20:W22*$AD$11:$AF$13)</f>
+        <v>2.0168108625449079</v>
+      </c>
+      <c r="BC21">
+        <f t="array" ref="BC21">SUM(V20:X22*$AD$11:$AF$13)</f>
+        <v>0.15738226138101497</v>
+      </c>
+      <c r="BD21">
+        <f t="array" ref="BD21">SUM(W20:Y22*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <f t="array" ref="BE21">SUM(X20:Z22*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <f t="array" ref="BF21">SUM(Y20:AA22*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <f t="array" ref="BG21">SUM(Z20:AB22*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <f t="array" ref="BO21">SUM(AH20:AJ22*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <f t="array" ref="BP21">SUM(AI20:AK22*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <f t="array" ref="BQ21">SUM(AJ20:AL22*$BI$11:$BK$13)</f>
+        <v>0.84337728803287315</v>
+      </c>
+      <c r="BR21">
+        <f t="array" ref="BR21">SUM(AK20:AM22*$BI$11:$BK$13)</f>
+        <v>3.7074629803099213</v>
+      </c>
+      <c r="BS21">
+        <f t="array" ref="BS21">SUM(AL20:AN22*$BI$11:$BK$13)</f>
+        <v>7.7690686572941425</v>
+      </c>
+      <c r="BT21">
+        <f t="array" ref="BT21">SUM(AM20:AO22*$BI$11:$BK$13)</f>
+        <v>11.33735197069038</v>
+      </c>
+      <c r="BU21">
+        <f t="array" ref="BU21">SUM(AN20:AP22*$BI$11:$BK$13)</f>
+        <v>12.482426680346666</v>
+      </c>
+      <c r="BV21">
+        <f t="array" ref="BV21">SUM(AO20:AQ22*$BI$11:$BK$13)</f>
+        <v>11.275811171160841</v>
+      </c>
+      <c r="BW21">
+        <f t="array" ref="BW21">SUM(AP20:AR22*$BI$11:$BK$13)</f>
+        <v>8.4231056556441555</v>
+      </c>
+      <c r="BX21">
+        <f t="array" ref="BX21">SUM(AQ20:AS22*$BI$11:$BK$13)</f>
+        <v>6.3215166701692</v>
+      </c>
+      <c r="BY21">
+        <f t="array" ref="BY21">SUM(AR20:AT22*$BI$11:$BK$13)</f>
+        <v>4.5670285530922881</v>
+      </c>
+      <c r="BZ21">
+        <f t="array" ref="BZ21">SUM(AS20:AU22*$BI$11:$BK$13)</f>
+        <v>3.6003271888793043</v>
+      </c>
+      <c r="CA21">
+        <f t="array" ref="CA21">SUM(AT20:AV22*$BI$11:$BK$13)</f>
+        <v>2.6660678227196386</v>
+      </c>
+      <c r="CB21">
+        <f t="array" ref="CB21">SUM(AU20:AW22*$BI$11:$BK$13)</f>
+        <v>2.1441768197030204</v>
+      </c>
+      <c r="CC21">
+        <f t="array" ref="CC21">SUM(AV20:AX22*$BI$11:$BK$13)</f>
+        <v>4.4133902838907053</v>
+      </c>
+      <c r="CD21">
+        <f t="array" ref="CD21">SUM(AW20:AY22*$BI$11:$BK$13)</f>
+        <v>9.8845204045972093</v>
+      </c>
+      <c r="CE21">
+        <f t="array" ref="CE21">SUM(AX20:AZ22*$BI$11:$BK$13)</f>
+        <v>15.860718133853629</v>
+      </c>
+      <c r="CF21">
+        <f t="array" ref="CF21">SUM(AY20:BA22*$BI$11:$BK$13)</f>
+        <v>18.703240365833313</v>
+      </c>
+      <c r="CG21">
+        <f t="array" ref="CG21">SUM(AZ20:BB22*$BI$11:$BK$13)</f>
+        <v>15.09739337260309</v>
+      </c>
+      <c r="CH21">
+        <f t="array" ref="CH21">SUM(BA20:BC22*$BI$11:$BK$13)</f>
+        <v>8.6515357063216882</v>
+      </c>
+      <c r="CI21">
+        <f t="array" ref="CI21">SUM(BB20:BD22*$BI$11:$BK$13)</f>
+        <v>2.8628448581579349</v>
+      </c>
+      <c r="CJ21">
+        <f t="array" ref="CJ21">SUM(BC20:BE22*$BI$11:$BK$13)</f>
+        <v>6.2366704299207917E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>7.0588238537311498E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.48627454042434598</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.32941177487373302</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0.65098041296005205</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <f t="array" ref="AH22">SUM(A21:C23*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <f t="array" ref="AI22">SUM(B21:D23*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <f t="array" ref="AJ22">SUM(C21:E23*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <f t="array" ref="AK22">SUM(D21:F23*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <f t="array" ref="AL22">SUM(E21:G23*$AD$11:$AF$13)</f>
+        <v>0.66304429358814343</v>
+      </c>
+      <c r="AM22">
+        <f t="array" ref="AM22">SUM(F21:H23*$AD$11:$AF$13)</f>
+        <v>1.3985617931563403</v>
+      </c>
+      <c r="AN22">
+        <f t="array" ref="AN22">SUM(G21:I23*$AD$11:$AF$13)</f>
+        <v>1.6478339371768358</v>
+      </c>
+      <c r="AO22">
+        <f t="array" ref="AO22">SUM(H21:J23*$AD$11:$AF$13)</f>
+        <v>1.74190378741122</v>
+      </c>
+      <c r="AP22">
+        <f t="array" ref="AP22">SUM(I21:K23*$AD$11:$AF$13)</f>
+        <v>0.74311925702778203</v>
+      </c>
+      <c r="AQ22">
+        <f t="array" ref="AQ22">SUM(J21:L23*$AD$11:$AF$13)</f>
+        <v>0.23799269505707918</v>
+      </c>
+      <c r="AR22">
+        <f t="array" ref="AR22">SUM(K21:M23*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <f t="array" ref="AS22">SUM(L21:N23*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <f t="array" ref="AT22">SUM(M21:O23*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <f t="array" ref="AU22">SUM(N21:P23*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <f t="array" ref="AV22">SUM(O21:Q23*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <f t="array" ref="AW22">SUM(P21:R23*$AD$11:$AF$13)</f>
+        <v>0.82791874905623097</v>
+      </c>
+      <c r="AX22">
+        <f t="array" ref="AX22">SUM(Q21:S23*$AD$11:$AF$13)</f>
+        <v>2.5099626964348327</v>
+      </c>
+      <c r="AY22">
+        <f t="array" ref="AY22">SUM(R21:T23*$AD$11:$AF$13)</f>
+        <v>3.6679066986464677</v>
+      </c>
+      <c r="AZ22">
+        <f t="array" ref="AZ22">SUM(S21:U23*$AD$11:$AF$13)</f>
+        <v>4.2483124203220486</v>
+      </c>
+      <c r="BA22">
+        <f t="array" ref="BA22">SUM(T21:V23*$AD$11:$AF$13)</f>
+        <v>2.607368049788072</v>
+      </c>
+      <c r="BB22">
+        <f t="array" ref="BB22">SUM(U21:W23*$AD$11:$AF$13)</f>
+        <v>1.4971567370796406</v>
+      </c>
+      <c r="BC22">
+        <f t="array" ref="BC22">SUM(V21:X23*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <f t="array" ref="BD22">SUM(W21:Y23*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <f t="array" ref="BE22">SUM(X21:Z23*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <f t="array" ref="BF22">SUM(Y21:AA23*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <f t="array" ref="BG22">SUM(Z21:AB23*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <f t="array" ref="BO22">SUM(AH21:AJ23*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <f t="array" ref="BP22">SUM(AI21:AK23*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <f t="array" ref="BQ22">SUM(AJ21:AL23*$BI$11:$BK$13)</f>
+        <v>0.69673175087762163</v>
+      </c>
+      <c r="BR22">
+        <f t="array" ref="BR22">SUM(AK21:AM23*$BI$11:$BK$13)</f>
+        <v>3.0047472845035554</v>
+      </c>
+      <c r="BS22">
+        <f t="array" ref="BS22">SUM(AL21:AN23*$BI$11:$BK$13)</f>
+        <v>5.6233801902461504</v>
+      </c>
+      <c r="BT22">
+        <f t="array" ref="BT22">SUM(AM21:AO23*$BI$11:$BK$13)</f>
+        <v>7.3750538550529594</v>
+      </c>
+      <c r="BU22">
+        <f t="array" ref="BU22">SUM(AN21:AP23*$BI$11:$BK$13)</f>
+        <v>7.0515960085430773</v>
+      </c>
+      <c r="BV22">
+        <f t="array" ref="BV22">SUM(AO21:AQ23*$BI$11:$BK$13)</f>
+        <v>5.0904258483782163</v>
+      </c>
+      <c r="BW22">
+        <f t="array" ref="BW22">SUM(AP21:AR23*$BI$11:$BK$13)</f>
+        <v>2.7605055938761147</v>
+      </c>
+      <c r="BX22">
+        <f t="array" ref="BX22">SUM(AQ21:AS23*$BI$11:$BK$13)</f>
+        <v>1.6640263859135835</v>
+      </c>
+      <c r="BY22">
+        <f t="array" ref="BY22">SUM(AR21:AT23*$BI$11:$BK$13)</f>
+        <v>0.81295013821878381</v>
+      </c>
+      <c r="BZ22">
+        <f t="array" ref="BZ22">SUM(AS21:AU23*$BI$11:$BK$13)</f>
+        <v>0.42557537348157193</v>
+      </c>
+      <c r="CA22">
+        <f t="array" ref="CA22">SUM(AT21:AV23*$BI$11:$BK$13)</f>
+        <v>0.19915394648146584</v>
+      </c>
+      <c r="CB22">
+        <f t="array" ref="CB22">SUM(AU21:AW23*$BI$11:$BK$13)</f>
+        <v>1.1141019546438982</v>
+      </c>
+      <c r="CC22">
+        <f t="array" ref="CC22">SUM(AV21:AX23*$BI$11:$BK$13)</f>
+        <v>5.1750572468727807</v>
+      </c>
+      <c r="CD22">
+        <f t="array" ref="CD22">SUM(AW21:AY23*$BI$11:$BK$13)</f>
+        <v>11.543989100638585</v>
+      </c>
+      <c r="CE22">
+        <f t="array" ref="CE22">SUM(AX21:AZ23*$BI$11:$BK$13)</f>
+        <v>16.837056480224941</v>
+      </c>
+      <c r="CF22">
+        <f t="array" ref="CF22">SUM(AY21:BA23*$BI$11:$BK$13)</f>
+        <v>17.862997834973545</v>
+      </c>
+      <c r="CG22">
+        <f t="array" ref="CG22">SUM(AZ21:BB23*$BI$11:$BK$13)</f>
+        <v>12.872885208858229</v>
+      </c>
+      <c r="CH22">
+        <f t="array" ref="CH22">SUM(BA21:BC23*$BI$11:$BK$13)</f>
+        <v>6.8075497324216219</v>
+      </c>
+      <c r="CI22">
+        <f t="array" ref="CI22">SUM(BB21:BD23*$BI$11:$BK$13)</f>
+        <v>1.4657560735271558</v>
+      </c>
+      <c r="CJ22">
+        <f t="array" ref="CJ22">SUM(BC21:BE23*$BI$11:$BK$13)</f>
+        <v>3.1604307389698355E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.54509806632995605</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.93333339691162098</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0.223529428243637</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <f t="array" ref="AH23">SUM(A22:C24*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <f t="array" ref="AI23">SUM(B22:D24*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <f t="array" ref="AJ23">SUM(C22:E24*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <f t="array" ref="AK23">SUM(D22:F24*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <f t="array" ref="AL23">SUM(E22:G24*$AD$11:$AF$13)</f>
+        <v>6.6376150890637697E-2</v>
+      </c>
+      <c r="AM23">
+        <f t="array" ref="AM23">SUM(F22:H24*$AD$11:$AF$13)</f>
+        <v>0.47686258206411358</v>
+      </c>
+      <c r="AN23">
+        <f t="array" ref="AN23">SUM(G22:I24*$AD$11:$AF$13)</f>
+        <v>0.20414888198888825</v>
+      </c>
+      <c r="AO23">
+        <f t="array" ref="AO23">SUM(H22:J24*$AD$11:$AF$13)</f>
+        <v>0.47598539011415836</v>
+      </c>
+      <c r="AP23">
+        <f t="array" ref="AP23">SUM(I22:K24*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <f t="array" ref="AQ23">SUM(J22:L24*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <f t="array" ref="AR23">SUM(K22:M24*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <f t="array" ref="AS23">SUM(L22:N24*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <f t="array" ref="AT23">SUM(M22:O24*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <f t="array" ref="AU23">SUM(N22:P24*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <f t="array" ref="AV23">SUM(O22:Q24*$AD$11:$AF$13)</f>
+        <v>0.70246918782584922</v>
+      </c>
+      <c r="AW23">
+        <f t="array" ref="AW23">SUM(P22:R24*$AD$11:$AF$13)</f>
+        <v>1.7230288920785646</v>
+      </c>
+      <c r="AX23">
+        <f t="array" ref="AX23">SUM(Q22:S24*$AD$11:$AF$13)</f>
+        <v>3.2837918962138479</v>
+      </c>
+      <c r="AY23">
+        <f t="array" ref="AY23">SUM(R22:T24*$AD$11:$AF$13)</f>
+        <v>3.978100161865826</v>
+      </c>
+      <c r="AZ23">
+        <f t="array" ref="AZ23">SUM(S22:U24*$AD$11:$AF$13)</f>
+        <v>3.5611320647491675</v>
+      </c>
+      <c r="BA23">
+        <f t="array" ref="BA23">SUM(T22:V24*$AD$11:$AF$13)</f>
+        <v>2.2294113305557719</v>
+      </c>
+      <c r="BB23">
+        <f t="array" ref="BB23">SUM(U22:W24*$AD$11:$AF$13)</f>
+        <v>0.79652243585274785</v>
+      </c>
+      <c r="BC23">
+        <f t="array" ref="BC23">SUM(V22:X24*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <f t="array" ref="BD23">SUM(W22:Y24*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <f t="array" ref="BE23">SUM(X22:Z24*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <f t="array" ref="BF23">SUM(Y22:AA24*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <f t="array" ref="BG23">SUM(Z22:AB24*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <f t="array" ref="BO23">SUM(AH22:AJ24*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <f t="array" ref="BP23">SUM(AI22:AK24*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <f t="array" ref="BQ23">SUM(AJ22:AL24*$BI$11:$BK$13)</f>
+        <v>0.30635719358076485</v>
+      </c>
+      <c r="BR23">
+        <f t="array" ref="BR23">SUM(AK22:AM24*$BI$11:$BK$13)</f>
+        <v>1.51852460093662</v>
+      </c>
+      <c r="BS23">
+        <f t="array" ref="BS23">SUM(AL22:AN24*$BI$11:$BK$13)</f>
+        <v>2.5832487842320413</v>
+      </c>
+      <c r="BT23">
+        <f t="array" ref="BT23">SUM(AM22:AO24*$BI$11:$BK$13)</f>
+        <v>2.914803922725127</v>
+      </c>
+      <c r="BU23">
+        <f t="array" ref="BU23">SUM(AN22:AP24*$BI$11:$BK$13)</f>
+        <v>2.503238408856145</v>
+      </c>
+      <c r="BV23">
+        <f t="array" ref="BV23">SUM(AO22:AQ24*$BI$11:$BK$13)</f>
+        <v>1.0068661245126223</v>
+      </c>
+      <c r="BW23">
+        <f t="array" ref="BW23">SUM(AP22:AR24*$BI$11:$BK$13)</f>
+        <v>0.24543266241264297</v>
+      </c>
+      <c r="BX23">
+        <f t="array" ref="BX23">SUM(AQ22:AS24*$BI$11:$BK$13)</f>
+        <v>4.7791880896140213E-3</v>
+      </c>
+      <c r="BY23">
+        <f t="array" ref="BY23">SUM(AR22:AT24*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ23">
+        <f t="array" ref="BZ23">SUM(AS22:AU24*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CA23">
+        <f t="array" ref="CA23">SUM(AT22:AV24*$BI$11:$BK$13)</f>
+        <v>0.49873815114613118</v>
+      </c>
+      <c r="CB23">
+        <f t="array" ref="CB23">SUM(AU22:AW24*$BI$11:$BK$13)</f>
+        <v>2.6955432800417714</v>
+      </c>
+      <c r="CC23">
+        <f t="array" ref="CC23">SUM(AV22:AX24*$BI$11:$BK$13)</f>
+        <v>8.0257784500290406</v>
+      </c>
+      <c r="CD23">
+        <f t="array" ref="CD23">SUM(AW22:AY24*$BI$11:$BK$13)</f>
+        <v>13.987601931980537</v>
+      </c>
+      <c r="CE23">
+        <f t="array" ref="CE23">SUM(AX22:AZ24*$BI$11:$BK$13)</f>
+        <v>17.815899785502886</v>
+      </c>
+      <c r="CF23">
+        <f t="array" ref="CF23">SUM(AY22:BA24*$BI$11:$BK$13)</f>
+        <v>16.173204459905673</v>
+      </c>
+      <c r="CG23">
+        <f t="array" ref="CG23">SUM(AZ22:BB24*$BI$11:$BK$13)</f>
+        <v>10.299020025367703</v>
+      </c>
+      <c r="CH23">
+        <f t="array" ref="CH23">SUM(BA22:BC24*$BI$11:$BK$13)</f>
+        <v>4.582197736461989</v>
+      </c>
+      <c r="CI23">
+        <f t="array" ref="CI23">SUM(BB22:BD24*$BI$11:$BK$13)</f>
+        <v>0.50466041644602178</v>
+      </c>
+      <c r="CJ23">
+        <f t="array" ref="CJ23">SUM(BC22:BE24*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.82352948188781705</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0.98039221763610795</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0.65882354974746704</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <f t="array" ref="AH24">SUM(A23:C25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <f t="array" ref="AI24">SUM(B23:D25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <f t="array" ref="AJ24">SUM(C23:E25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <f t="array" ref="AK24">SUM(D23:F25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <f t="array" ref="AL24">SUM(E23:G25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <f t="array" ref="AM24">SUM(F23:H25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <f t="array" ref="AN24">SUM(G23:I25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <f t="array" ref="AO24">SUM(H23:J25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <f t="array" ref="AP24">SUM(I23:K25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <f t="array" ref="AQ24">SUM(J23:L25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <f t="array" ref="AR24">SUM(K23:M25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <f t="array" ref="AS24">SUM(L23:N25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <f t="array" ref="AT24">SUM(M23:O25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <f t="array" ref="AU24">SUM(N23:P25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <f t="array" ref="AV24">SUM(O23:Q25*$AD$11:$AF$13)</f>
+        <v>1.2743820879826648</v>
+      </c>
+      <c r="AW24">
+        <f t="array" ref="AW24">SUM(P23:R25*$AD$11:$AF$13)</f>
+        <v>2.2651791376197581</v>
+      </c>
+      <c r="AX24">
+        <f t="array" ref="AX24">SUM(Q23:S25*$AD$11:$AF$13)</f>
+        <v>3.9820858241423869</v>
+      </c>
+      <c r="AY24">
+        <f t="array" ref="AY24">SUM(R23:T25*$AD$11:$AF$13)</f>
+        <v>3.9044418438740949</v>
+      </c>
+      <c r="AZ24">
+        <f t="array" ref="AZ24">SUM(S23:U25*$AD$11:$AF$13)</f>
+        <v>2.8246567174636747</v>
+      </c>
+      <c r="BA24">
+        <f t="array" ref="BA24">SUM(T23:V25*$AD$11:$AF$13)</f>
+        <v>1.5801825247230235</v>
+      </c>
+      <c r="BB24">
+        <f t="array" ref="BB24">SUM(U23:W25*$AD$11:$AF$13)</f>
+        <v>0.21879973813084178</v>
+      </c>
+      <c r="BC24">
+        <f t="array" ref="BC24">SUM(V23:X25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <f t="array" ref="BD24">SUM(W23:Y25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <f t="array" ref="BE24">SUM(X23:Z25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <f t="array" ref="BF24">SUM(Y23:AA25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <f t="array" ref="BG24">SUM(Z23:AB25*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO24">
+        <f t="array" ref="BO24">SUM(AH23:AJ25*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BP24">
+        <f t="array" ref="BP24">SUM(AI23:AK25*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ24">
+        <f t="array" ref="BQ24">SUM(AJ23:AL25*$BI$11:$BK$13)</f>
+        <v>2.7261570297189355E-2</v>
+      </c>
+      <c r="BR24">
+        <f t="array" ref="BR24">SUM(AK23:AM25*$BI$11:$BK$13)</f>
+        <v>0.26014302317970395</v>
+      </c>
+      <c r="BS24">
+        <f t="array" ref="BS24">SUM(AL23:AN25*$BI$11:$BK$13)</f>
+        <v>0.54704901005893225</v>
+      </c>
+      <c r="BT24">
+        <f t="array" ref="BT24">SUM(AM23:AO25*$BI$11:$BK$13)</f>
+        <v>0.40279972429474109</v>
+      </c>
+      <c r="BU24">
+        <f t="array" ref="BU24">SUM(AN23:AP25*$BI$11:$BK$13)</f>
+        <v>0.46511937704348061</v>
+      </c>
+      <c r="BV24">
+        <f t="array" ref="BV24">SUM(AO23:AQ25*$BI$11:$BK$13)</f>
+        <v>9.5583761792280425E-3</v>
+      </c>
+      <c r="BW24">
+        <f t="array" ref="BW24">SUM(AP23:AR25*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BX24">
+        <f t="array" ref="BX24">SUM(AQ23:AS25*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BY24">
+        <f t="array" ref="BY24">SUM(AR23:AT25*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ24">
+        <f t="array" ref="BZ24">SUM(AS23:AU25*$BI$11:$BK$13)</f>
+        <v>3.2362318616461945E-2</v>
+      </c>
+      <c r="CA24">
+        <f t="array" ref="CA24">SUM(AT23:AV25*$BI$11:$BK$13)</f>
+        <v>1.3325198034862455</v>
+      </c>
+      <c r="CB24">
+        <f t="array" ref="CB24">SUM(AU23:AW25*$BI$11:$BK$13)</f>
+        <v>5.380814394494104</v>
+      </c>
+      <c r="CC24">
+        <f t="array" ref="CC24">SUM(AV23:AX25*$BI$11:$BK$13)</f>
+        <v>11.670286735515454</v>
+      </c>
+      <c r="CD24">
+        <f t="array" ref="CD24">SUM(AW23:AY25*$BI$11:$BK$13)</f>
+        <v>16.624705696498992</v>
+      </c>
+      <c r="CE24">
+        <f t="array" ref="CE24">SUM(AX23:AZ25*$BI$11:$BK$13)</f>
+        <v>17.784475750895073</v>
+      </c>
+      <c r="CF24">
+        <f t="array" ref="CF24">SUM(AY23:BA25*$BI$11:$BK$13)</f>
+        <v>13.418701173201514</v>
+      </c>
+      <c r="CG24">
+        <f t="array" ref="CG24">SUM(AZ23:BB25*$BI$11:$BK$13)</f>
+        <v>7.359340000341267</v>
+      </c>
+      <c r="CH24">
+        <f t="array" ref="CH24">SUM(BA23:BC25*$BI$11:$BK$13)</f>
+        <v>2.3127843976355544</v>
+      </c>
+      <c r="CI24">
+        <f t="array" ref="CI24">SUM(BB23:BD25*$BI$11:$BK$13)</f>
+        <v>8.6962505185939759E-2</v>
+      </c>
+      <c r="CJ24">
+        <f t="array" ref="CJ24">SUM(BC23:BE25*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.94901967048644997</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0.99607849121093694</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0.93725496530532804</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0.223529428243637</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <f t="array" ref="AH25">SUM(A24:C26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <f t="array" ref="AI25">SUM(B24:D26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <f t="array" ref="AJ25">SUM(C24:E26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <f t="array" ref="AK25">SUM(D24:F26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <f t="array" ref="AL25">SUM(E24:G26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <f t="array" ref="AM25">SUM(F24:H26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <f t="array" ref="AN25">SUM(G24:I26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <f t="array" ref="AO25">SUM(H24:J26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <f t="array" ref="AP25">SUM(I24:K26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <f t="array" ref="AQ25">SUM(J24:L26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <f t="array" ref="AR25">SUM(K24:M26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <f t="array" ref="AS25">SUM(L24:N26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <f t="array" ref="AT25">SUM(M24:O26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <f t="array" ref="AU25">SUM(N24:P26*$AD$11:$AF$13)</f>
+        <v>0.29771311430945968</v>
+      </c>
+      <c r="AV25">
+        <f t="array" ref="AV25">SUM(O24:Q26*$AD$11:$AF$13)</f>
+        <v>2.2638460291691604</v>
+      </c>
+      <c r="AW25">
+        <f t="array" ref="AW25">SUM(P24:R26*$AD$11:$AF$13)</f>
+        <v>3.0968186630081069</v>
+      </c>
+      <c r="AX25">
+        <f t="array" ref="AX25">SUM(Q24:S26*$AD$11:$AF$13)</f>
+        <v>4.4589061272636608</v>
+      </c>
+      <c r="AY25">
+        <f t="array" ref="AY25">SUM(R24:T26*$AD$11:$AF$13)</f>
+        <v>3.4174051611761427</v>
+      </c>
+      <c r="AZ25">
+        <f t="array" ref="AZ25">SUM(S24:U26*$AD$11:$AF$13)</f>
+        <v>2.0402421163953504</v>
+      </c>
+      <c r="BA25">
+        <f t="array" ref="BA25">SUM(T24:V26*$AD$11:$AF$13)</f>
+        <v>0.80419961862324341</v>
+      </c>
+      <c r="BB25">
+        <f t="array" ref="BB25">SUM(U24:W26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <f t="array" ref="BC25">SUM(V24:X26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <f t="array" ref="BD25">SUM(W24:Y26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <f t="array" ref="BE25">SUM(X24:Z26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <f t="array" ref="BF25">SUM(Y24:AA26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <f t="array" ref="BG25">SUM(Z24:AB26*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO25">
+        <f t="array" ref="BO25">SUM(AH24:AJ26*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BP25">
+        <f t="array" ref="BP25">SUM(AI24:AK26*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ25">
+        <f t="array" ref="BQ25">SUM(AJ24:AL26*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BR25">
+        <f t="array" ref="BR25">SUM(AK24:AM26*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BS25">
+        <f t="array" ref="BS25">SUM(AL24:AN26*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <f t="array" ref="BT25">SUM(AM24:AO26*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BU25">
+        <f t="array" ref="BU25">SUM(AN24:AP26*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BV25">
+        <f t="array" ref="BV25">SUM(AO24:AQ26*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BW25">
+        <f t="array" ref="BW25">SUM(AP24:AR26*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BX25">
+        <f t="array" ref="BX25">SUM(AQ24:AS26*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BY25">
+        <f t="array" ref="BY25">SUM(AR24:AT26*$BI$11:$BK$13)</f>
+        <v>1.8181078049068385E-3</v>
+      </c>
+      <c r="BZ25">
+        <f t="array" ref="BZ25">SUM(AS24:AU26*$BI$11:$BK$13)</f>
+        <v>0.25779432041259209</v>
+      </c>
+      <c r="CA25">
+        <f t="array" ref="CA25">SUM(AT24:AV26*$BI$11:$BK$13)</f>
+        <v>2.6699197504533831</v>
+      </c>
+      <c r="CB25">
+        <f t="array" ref="CB25">SUM(AU24:AW26*$BI$11:$BK$13)</f>
+        <v>8.2976392195152542</v>
+      </c>
+      <c r="CC25">
+        <f t="array" ref="CC25">SUM(AV24:AX26*$BI$11:$BK$13)</f>
+        <v>14.130193171023365</v>
+      </c>
+      <c r="CD25">
+        <f t="array" ref="CD25">SUM(AW24:AY26*$BI$11:$BK$13)</f>
+        <v>17.556820480759775</v>
+      </c>
+      <c r="CE25">
+        <f t="array" ref="CE25">SUM(AX24:AZ26*$BI$11:$BK$13)</f>
+        <v>15.581282707030578</v>
+      </c>
+      <c r="CF25">
+        <f t="array" ref="CF25">SUM(AY24:BA26*$BI$11:$BK$13)</f>
+        <v>9.8415169306207808</v>
+      </c>
+      <c r="CG25">
+        <f t="array" ref="CG25">SUM(AZ24:BB26*$BI$11:$BK$13)</f>
+        <v>4.3460235859381395</v>
+      </c>
+      <c r="CH25">
+        <f t="array" ref="CH25">SUM(BA24:BC26*$BI$11:$BK$13)</f>
+        <v>0.720738160097115</v>
+      </c>
+      <c r="CI25">
+        <f t="array" ref="CI25">SUM(BB24:BD26*$BI$11:$BK$13)</f>
+        <v>4.3937697425326149E-3</v>
+      </c>
+      <c r="CJ25">
+        <f t="array" ref="CJ25">SUM(BC24:BE26*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.34901961684226901</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.98431378602981501</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0.94509810209274203</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0.33725491166114802</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <f t="array" ref="AH26">SUM(A25:C27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <f t="array" ref="AI26">SUM(B25:D27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <f t="array" ref="AJ26">SUM(C25:E27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <f t="array" ref="AK26">SUM(D25:F27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <f t="array" ref="AL26">SUM(E25:G27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <f t="array" ref="AM26">SUM(F25:H27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <f t="array" ref="AN26">SUM(G25:I27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <f t="array" ref="AO26">SUM(H25:J27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <f t="array" ref="AP26">SUM(I25:K27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <f t="array" ref="AQ26">SUM(J25:L27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <f t="array" ref="AR26">SUM(K25:M27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <f t="array" ref="AS26">SUM(L25:N27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <f t="array" ref="AT26">SUM(M25:O27*$AD$11:$AF$13)</f>
+        <v>1.6725456020750533E-2</v>
+      </c>
+      <c r="AU26">
+        <f t="array" ref="AU26">SUM(N25:P27*$AD$11:$AF$13)</f>
+        <v>0.89251707193703811</v>
+      </c>
+      <c r="AV26">
+        <f t="array" ref="AV26">SUM(O25:Q27*$AD$11:$AF$13)</f>
+        <v>2.563536282190372</v>
+      </c>
+      <c r="AW26">
+        <f t="array" ref="AW26">SUM(P25:R27*$AD$11:$AF$13)</f>
+        <v>3.3576895073404947</v>
+      </c>
+      <c r="AX26">
+        <f t="array" ref="AX26">SUM(Q25:S27*$AD$11:$AF$13)</f>
+        <v>3.8075854547705865</v>
+      </c>
+      <c r="AY26">
+        <f t="array" ref="AY26">SUM(R25:T27*$AD$11:$AF$13)</f>
+        <v>2.5068651790047856</v>
+      </c>
+      <c r="AZ26">
+        <f t="array" ref="AZ26">SUM(S25:U27*$AD$11:$AF$13)</f>
+        <v>1.2198766493613862</v>
+      </c>
+      <c r="BA26">
+        <f t="array" ref="BA26">SUM(T25:V27*$AD$11:$AF$13)</f>
+        <v>0.21879973813084178</v>
+      </c>
+      <c r="BB26">
+        <f t="array" ref="BB26">SUM(U25:W27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <f t="array" ref="BC26">SUM(V25:X27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <f t="array" ref="BD26">SUM(W25:Y27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <f t="array" ref="BE26">SUM(X25:Z27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <f t="array" ref="BF26">SUM(Y25:AA27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <f t="array" ref="BG26">SUM(Z25:AB27*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <f t="array" ref="BO26">SUM(AH25:AJ27*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BP26">
+        <f t="array" ref="BP26">SUM(AI25:AK27*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <f t="array" ref="BQ26">SUM(AJ25:AL27*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BR26">
+        <f t="array" ref="BR26">SUM(AK25:AM27*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <f t="array" ref="BS26">SUM(AL25:AN27*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <f t="array" ref="BT26">SUM(AM25:AO27*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BU26">
+        <f t="array" ref="BU26">SUM(AN25:AP27*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BV26">
+        <f t="array" ref="BV26">SUM(AO25:AQ27*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BW26">
+        <f t="array" ref="BW26">SUM(AP25:AR27*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BX26">
+        <f t="array" ref="BX26">SUM(AQ25:AS27*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BY26">
+        <f t="array" ref="BY26">SUM(AR25:AT27*$BI$11:$BK$13)</f>
+        <v>1.1234050808376143E-2</v>
+      </c>
+      <c r="BZ26">
+        <f t="array" ref="BZ26">SUM(AS25:AU27*$BI$11:$BK$13)</f>
+        <v>0.73470908459567841</v>
+      </c>
+      <c r="CA26">
+        <f t="array" ref="CA26">SUM(AT25:AV27*$BI$11:$BK$13)</f>
+        <v>4.1258135913411369</v>
+      </c>
+      <c r="CB26">
+        <f t="array" ref="CB26">SUM(AU25:AW27*$BI$11:$BK$13)</f>
+        <v>10.150027813951315</v>
+      </c>
+      <c r="CC26">
+        <f t="array" ref="CC26">SUM(AV25:AX27*$BI$11:$BK$13)</f>
+        <v>14.190541682341456</v>
+      </c>
+      <c r="CD26">
+        <f t="array" ref="CD26">SUM(AW25:AY27*$BI$11:$BK$13)</f>
+        <v>15.590968216069951</v>
+      </c>
+      <c r="CE26">
+        <f t="array" ref="CE26">SUM(AX25:AZ27*$BI$11:$BK$13)</f>
+        <v>11.403803042288347</v>
+      </c>
+      <c r="CF26">
+        <f t="array" ref="CF26">SUM(AY25:BA27*$BI$11:$BK$13)</f>
+        <v>5.95587919524458</v>
+      </c>
+      <c r="CG26">
+        <f t="array" ref="CG26">SUM(AZ25:BB27*$BI$11:$BK$13)</f>
+        <v>1.7310118060148509</v>
+      </c>
+      <c r="CH26">
+        <f t="array" ref="CH26">SUM(BA25:BC27*$BI$11:$BK$13)</f>
+        <v>8.7116672524772343E-2</v>
+      </c>
+      <c r="CI26">
+        <f t="array" ref="CI26">SUM(BB25:BD27*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ26">
+        <f t="array" ref="CJ26">SUM(BC25:BE27*$BI$11:$BK$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1.9607843831181498E-2</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.80784320831298795</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.96470594406127896</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0.61568629741668701</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+      <c r="X27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <f t="array" ref="AH27">SUM(A26:C28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <f t="array" ref="AI27">SUM(B26:D28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <f t="array" ref="AJ27">SUM(C26:E28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <f t="array" ref="AK27">SUM(D26:F28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <f t="array" ref="AL27">SUM(E26:G28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <f t="array" ref="AM27">SUM(F26:H28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <f t="array" ref="AN27">SUM(G26:I28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <f t="array" ref="AO27">SUM(H26:J28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <f t="array" ref="AP27">SUM(I26:K28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <f t="array" ref="AQ27">SUM(J26:L28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <f t="array" ref="AR27">SUM(K26:M28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <f t="array" ref="AS27">SUM(L26:N28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <f t="array" ref="AT27">SUM(M26:O28*$AD$11:$AF$13)</f>
+        <v>2.4448697721532946E-2</v>
+      </c>
+      <c r="AU27">
+        <f t="array" ref="AU27">SUM(N26:P28*$AD$11:$AF$13)</f>
+        <v>1.1816470844027787</v>
+      </c>
+      <c r="AV27">
+        <f t="array" ref="AV27">SUM(O26:Q28*$AD$11:$AF$13)</f>
+        <v>2.0098243910775069</v>
+      </c>
+      <c r="AW27">
+        <f t="array" ref="AW27">SUM(P26:R28*$AD$11:$AF$13)</f>
+        <v>2.8384469955650764</v>
+      </c>
+      <c r="AX27">
+        <f t="array" ref="AX27">SUM(Q26:S28*$AD$11:$AF$13)</f>
+        <v>2.4233475759887453</v>
+      </c>
+      <c r="AY27">
+        <f t="array" ref="AY27">SUM(R26:T28*$AD$11:$AF$13)</f>
+        <v>1.4575855906066495</v>
+      </c>
+      <c r="AZ27">
+        <f t="array" ref="AZ27">SUM(S26:U28*$AD$11:$AF$13)</f>
+        <v>0.33011888830302105</v>
+      </c>
+      <c r="BA27">
+        <f t="array" ref="BA27">SUM(T26:V28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <f t="array" ref="BB27">SUM(U26:W28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <f t="array" ref="BC27">SUM(V26:X28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <f t="array" ref="BD27">SUM(W26:Y28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <f t="array" ref="BE27">SUM(X26:Z28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <f t="array" ref="BF27">SUM(Y26:AA28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <f t="array" ref="BG27">SUM(Z26:AB28*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1.5686275437474199E-2</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.458823561668395</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0.270588248968124</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <f t="array" ref="AH28">SUM(A27:C29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <f t="array" ref="AI28">SUM(B27:D29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <f t="array" ref="AJ28">SUM(C27:E29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <f t="array" ref="AK28">SUM(D27:F29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <f t="array" ref="AL28">SUM(E27:G29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <f t="array" ref="AM28">SUM(F27:H29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <f t="array" ref="AN28">SUM(G27:I29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <f t="array" ref="AO28">SUM(H27:J29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <f t="array" ref="AP28">SUM(I27:K29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <f t="array" ref="AQ28">SUM(J27:L29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <f t="array" ref="AR28">SUM(K27:M29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <f t="array" ref="AS28">SUM(L27:N29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <f t="array" ref="AT28">SUM(M27:O29*$AD$11:$AF$13)</f>
+        <v>2.729248577725258E-2</v>
+      </c>
+      <c r="AU28">
+        <f t="array" ref="AU28">SUM(N27:P29*$AD$11:$AF$13)</f>
+        <v>1.0248296062777436</v>
+      </c>
+      <c r="AV28">
+        <f t="array" ref="AV28">SUM(O27:Q29*$AD$11:$AF$13)</f>
+        <v>1.3364613605320517</v>
+      </c>
+      <c r="AW28">
+        <f t="array" ref="AW28">SUM(P27:R29*$AD$11:$AF$13)</f>
+        <v>1.9775252890856283</v>
+      </c>
+      <c r="AX28">
+        <f t="array" ref="AX28">SUM(Q27:S29*$AD$11:$AF$13)</f>
+        <v>1.3081461315917453</v>
+      </c>
+      <c r="AY28">
+        <f t="array" ref="AY28">SUM(R27:T29*$AD$11:$AF$13)</f>
+        <v>0.60265890582732873</v>
+      </c>
+      <c r="AZ28">
+        <f t="array" ref="AZ28">SUM(S27:U29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <f t="array" ref="BA28">SUM(T27:V29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <f t="array" ref="BB28">SUM(U27:W29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <f t="array" ref="BC28">SUM(V27:X29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <f t="array" ref="BD28">SUM(W27:Y29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <f t="array" ref="BE28">SUM(X27:Z29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <f t="array" ref="BF28">SUM(Y27:AA29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <f t="array" ref="BG28">SUM(Z27:AB29*$AD$11:$AF$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
+        <v>0</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+      <c r="X29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:88" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:AB30">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3:BG28">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM3:CL28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>